--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.711888137291169</v>
+        <v>2.40266336066702</v>
       </c>
       <c r="C2">
-        <v>1.638181042816427</v>
+        <v>0.2631888217823217</v>
       </c>
       <c r="D2">
-        <v>0.007056924584834423</v>
+        <v>0.3839180528064361</v>
       </c>
       <c r="E2">
-        <v>0.4508068888626084</v>
+        <v>0.04594188481461359</v>
       </c>
       <c r="F2">
-        <v>2.722820040758648</v>
+        <v>6.662971319011945</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.171188326649713</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3287558711828353</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5296804700982491</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.292676255892701</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.193547041800741</v>
+        <v>2.078656012101874</v>
       </c>
       <c r="C3">
-        <v>1.405202362308273</v>
+        <v>0.2271973240928986</v>
       </c>
       <c r="D3">
-        <v>0.007790042535273045</v>
+        <v>0.3472399981451275</v>
       </c>
       <c r="E3">
-        <v>0.3856362621673526</v>
+        <v>0.04303538028188925</v>
       </c>
       <c r="F3">
-        <v>2.390914527366917</v>
+        <v>5.905795094630093</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.05232590708556</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2812203949172414</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4543896114747028</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2566614406156873</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.880813851125652</v>
+        <v>1.885808076331045</v>
       </c>
       <c r="C4">
-        <v>1.265212373741804</v>
+        <v>0.2056508809947672</v>
       </c>
       <c r="D4">
-        <v>0.008252305696102358</v>
+        <v>0.3252236205306076</v>
       </c>
       <c r="E4">
-        <v>0.346702325217187</v>
+        <v>0.04130646193336851</v>
       </c>
       <c r="F4">
-        <v>2.195373621677703</v>
+        <v>5.451988736846346</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9832732354580145</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2529367353106906</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4095272580091702</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2352006665308863</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754528483486467</v>
+        <v>1.808556228750774</v>
       </c>
       <c r="C5">
-        <v>1.208806849546022</v>
+        <v>0.1969836806012495</v>
       </c>
       <c r="D5">
-        <v>0.008443446698760848</v>
+        <v>0.3163573860306172</v>
       </c>
       <c r="E5">
-        <v>0.3310650504907571</v>
+        <v>0.04061430531149668</v>
       </c>
       <c r="F5">
-        <v>2.117496100405646</v>
+        <v>5.269443058407035</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9560031412873187</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2416031671716752</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3915419517653689</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.226598986655091</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.733622345342269</v>
+        <v>1.795803903083879</v>
       </c>
       <c r="C6">
-        <v>1.199476037861132</v>
+        <v>0.1955506346967724</v>
       </c>
       <c r="D6">
-        <v>0.008475345080491525</v>
+        <v>0.3148909564654474</v>
       </c>
       <c r="E6">
-        <v>0.3284811322125307</v>
+        <v>0.04050007763955144</v>
       </c>
       <c r="F6">
-        <v>2.104666462536954</v>
+        <v>5.239264351869792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9515242490121381</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2397319048846143</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.388572129685187</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2251788133565498</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.879106333205925</v>
+        <v>1.88476106955946</v>
       </c>
       <c r="C7">
-        <v>1.264449230027594</v>
+        <v>0.2055335658802306</v>
       </c>
       <c r="D7">
-        <v>0.00825487263707636</v>
+        <v>0.3251036461138028</v>
       </c>
       <c r="E7">
-        <v>0.3464905632582074</v>
+        <v>0.04129707910438718</v>
       </c>
       <c r="F7">
-        <v>2.194316354205199</v>
+        <v>5.449517717317406</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9829020885599249</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2527831515866765</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4092835600811924</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2350841044870151</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.5318662424948</v>
+        <v>2.28955512505479</v>
       </c>
       <c r="C8">
-        <v>1.557133072559964</v>
+        <v>0.2506477881114932</v>
       </c>
       <c r="D8">
-        <v>0.007307000771599625</v>
+        <v>0.3711533883008826</v>
       </c>
       <c r="E8">
-        <v>0.428083974126146</v>
+        <v>0.0449271397661537</v>
       </c>
       <c r="F8">
-        <v>2.606495786802157</v>
+        <v>6.399333084191966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.12931334077588</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3121557971029389</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5034064570206596</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2801099972046046</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.868070922431457</v>
+        <v>3.141935437729785</v>
       </c>
       <c r="C9">
-        <v>2.162061134292969</v>
+        <v>0.3448494531441497</v>
       </c>
       <c r="D9">
-        <v>0.005560131406916025</v>
+        <v>0.4665460296497628</v>
       </c>
       <c r="E9">
-        <v>0.5989380350171061</v>
+        <v>0.05257048924242191</v>
       </c>
       <c r="F9">
-        <v>3.494166297035406</v>
+        <v>8.371049180690079</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.453765610915568</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4375859250950214</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.701275443847635</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3746320330295134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.904288714526729</v>
+        <v>3.82066588302547</v>
       </c>
       <c r="C10">
-        <v>2.636502334663021</v>
+        <v>0.4197914404387006</v>
       </c>
       <c r="D10">
-        <v>0.0043725447923606</v>
+        <v>0.5415073136290687</v>
       </c>
       <c r="E10">
-        <v>0.7348694294519618</v>
+        <v>0.0586408018093536</v>
       </c>
       <c r="F10">
-        <v>4.217702467627248</v>
+        <v>9.920457420010962</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.725056752739277</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5382854874250569</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8587835497713741</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4495850864739168</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.393201115780073</v>
+        <v>4.145476590988096</v>
       </c>
       <c r="C11">
-        <v>2.861983093160461</v>
+        <v>0.4557581688702612</v>
       </c>
       <c r="D11">
-        <v>0.00386148516411744</v>
+        <v>0.5771546051098824</v>
       </c>
       <c r="E11">
-        <v>0.8000442017176397</v>
+        <v>0.06153792830881955</v>
       </c>
       <c r="F11">
-        <v>4.568782484849976</v>
+        <v>10.65660261658263</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.858460833350932</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5868214319858609</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9341913063617113</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4853493281807317</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.581450806081307</v>
+        <v>4.271260374110966</v>
       </c>
       <c r="C12">
-        <v>2.949083096951313</v>
+        <v>0.4697132180862695</v>
       </c>
       <c r="D12">
-        <v>0.003673091900210146</v>
+        <v>0.5909255593593912</v>
       </c>
       <c r="E12">
-        <v>0.8253180520722339</v>
+        <v>0.06265826386632156</v>
       </c>
       <c r="F12">
-        <v>4.705553149095721</v>
+        <v>10.94082432931094</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.910710671944074</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6056848104772357</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9634019781478571</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4991802385873569</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.540758913504135</v>
+        <v>4.24403813042494</v>
       </c>
       <c r="C13">
-        <v>2.930242310654705</v>
+        <v>0.4666916487671813</v>
       </c>
       <c r="D13">
-        <v>0.003713419908771831</v>
+        <v>0.5879467444540296</v>
       </c>
       <c r="E13">
-        <v>0.8198464023525673</v>
+        <v>0.06241587811971527</v>
       </c>
       <c r="F13">
-        <v>4.675914895927377</v>
+        <v>10.87935210033419</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.899375306367418</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6015990470366432</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9570797091283225</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.496187844541609</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.408622418598839</v>
+        <v>4.155766021884858</v>
       </c>
       <c r="C14">
-        <v>2.869112366256275</v>
+        <v>0.4568991168178513</v>
       </c>
       <c r="D14">
-        <v>0.003845876821129135</v>
+        <v>0.5782817787246302</v>
       </c>
       <c r="E14">
-        <v>0.8021108622777717</v>
+        <v>0.06162960897889747</v>
       </c>
       <c r="F14">
-        <v>4.579953716873774</v>
+        <v>10.67987016712857</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.862722823097258</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5883630392300248</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9365806101112781</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4864811312088761</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.328109405313626</v>
+        <v>4.102075212165857</v>
       </c>
       <c r="C15">
-        <v>2.831902766671476</v>
+        <v>0.4509467399351763</v>
       </c>
       <c r="D15">
-        <v>0.003927710962083886</v>
+        <v>0.5723987754928146</v>
       </c>
       <c r="E15">
-        <v>0.7913284185946594</v>
+        <v>0.06115114794468468</v>
       </c>
       <c r="F15">
-        <v>4.52169496735516</v>
+        <v>10.55842416246861</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.840507565231547</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5803216767831145</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9241134741487116</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4805745414424365</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.872737567039223</v>
+        <v>3.799800485302455</v>
       </c>
       <c r="C16">
-        <v>2.621987370084867</v>
+        <v>0.4174839753692083</v>
       </c>
       <c r="D16">
-        <v>0.004406605911753125</v>
+        <v>0.5392128476364348</v>
       </c>
       <c r="E16">
-        <v>0.7306864524450845</v>
+        <v>0.05845450327301904</v>
       </c>
       <c r="F16">
-        <v>4.195254251985773</v>
+        <v>9.873056534631303</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.71656350395638</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5351758310874288</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8539404199516412</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4472852691452687</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.598255042137737</v>
+        <v>3.618788109707793</v>
       </c>
       <c r="C17">
-        <v>2.495896418395546</v>
+        <v>0.397478632914428</v>
       </c>
       <c r="D17">
-        <v>0.004708463933147389</v>
+        <v>0.519283139809346</v>
       </c>
       <c r="E17">
-        <v>0.6944132371733645</v>
+        <v>0.05683741507638373</v>
       </c>
       <c r="F17">
-        <v>4.001048449534835</v>
+        <v>9.46125312134987</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.643279645481698</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.508238213159764</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8119289628923525</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4273219709463234</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.441988849927895</v>
+        <v>3.516152306387028</v>
       </c>
       <c r="C18">
-        <v>2.42425800015917</v>
+        <v>0.3861439881803221</v>
       </c>
       <c r="D18">
-        <v>0.004884763287410498</v>
+        <v>0.5079622633653003</v>
       </c>
       <c r="E18">
-        <v>0.6738560945992873</v>
+        <v>0.05591982301005238</v>
       </c>
       <c r="F18">
-        <v>3.891364479641965</v>
+        <v>9.227275422504619</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.602048478618144</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4929946199160753</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7881106195300447</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4159932513859843</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.38934005609616</v>
+        <v>3.481642285024748</v>
       </c>
       <c r="C19">
-        <v>2.400145682389564</v>
+        <v>0.3823340049010255</v>
       </c>
       <c r="D19">
-        <v>0.004944890312708505</v>
+        <v>0.5041522575069166</v>
       </c>
       <c r="E19">
-        <v>0.6669453180510772</v>
+        <v>0.0556111881151633</v>
       </c>
       <c r="F19">
-        <v>3.85455569546761</v>
+        <v>9.148522969953717</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.588238206713783</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4878738862330039</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7801023208007436</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4121826076163302</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.627303768902891</v>
+        <v>3.637901077458764</v>
       </c>
       <c r="C20">
-        <v>2.509225184132845</v>
+        <v>0.3995900111500248</v>
       </c>
       <c r="D20">
-        <v>0.004676047336604094</v>
+        <v>0.5213896468990242</v>
       </c>
       <c r="E20">
-        <v>0.6982421404689632</v>
+        <v>0.05700823671841349</v>
       </c>
       <c r="F20">
-        <v>4.021508699463908</v>
+        <v>9.50478577223717</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.650983688632294</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5110792692908177</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8163646273457061</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4294308771637674</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.447344439581968</v>
+        <v>4.181613835726864</v>
       </c>
       <c r="C21">
-        <v>2.887018210317251</v>
+        <v>0.4597657329149456</v>
       </c>
       <c r="D21">
-        <v>0.003806823019826933</v>
+        <v>0.5811127864626258</v>
       </c>
       <c r="E21">
-        <v>0.8073030835001589</v>
+        <v>0.06185989082742793</v>
       </c>
       <c r="F21">
-        <v>4.608030027322201</v>
+        <v>10.73830615408275</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.873438862644861</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5922368129186779</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9425828743261206</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4893239910283</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.001777782084787</v>
+        <v>4.553487482134813</v>
       </c>
       <c r="C22">
-        <v>3.144131390778909</v>
+        <v>0.5010889206498348</v>
       </c>
       <c r="D22">
-        <v>0.003269280957352461</v>
+        <v>0.6217615865653841</v>
       </c>
       <c r="E22">
-        <v>0.8821124653165953</v>
+        <v>0.06516855707335978</v>
       </c>
       <c r="F22">
-        <v>5.014064730718047</v>
+        <v>11.57688823591246</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.02910984322672</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6481564944561455</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.028964890325511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5301741743269304</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.703946939716445</v>
+        <v>4.353316522529212</v>
       </c>
       <c r="C23">
-        <v>3.005844609755115</v>
+        <v>0.4788260482604016</v>
       </c>
       <c r="D23">
-        <v>0.003553006428306249</v>
+        <v>0.5998996958512635</v>
       </c>
       <c r="E23">
-        <v>0.8418178290457377</v>
+        <v>0.06338862157629066</v>
       </c>
       <c r="F23">
-        <v>4.795019187071404</v>
+        <v>11.1259905989312</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.944969834337996</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6180118959943854</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9824608675701683</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5081971874449351</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.614166093451615</v>
+        <v>3.629255683366807</v>
       </c>
       <c r="C24">
-        <v>2.503196616154071</v>
+        <v>0.3986349425907036</v>
       </c>
       <c r="D24">
-        <v>0.004690694359079206</v>
+        <v>0.520436871994292</v>
       </c>
       <c r="E24">
-        <v>0.6965101770168616</v>
+        <v>0.05693097085717014</v>
       </c>
       <c r="F24">
-        <v>4.012252540725939</v>
+        <v>9.485096091492125</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.647497906754012</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5097940769461289</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.81435822961285</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4284769817743097</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.498687012997777</v>
+        <v>2.903499173886985</v>
       </c>
       <c r="C25">
-        <v>1.994060198531031</v>
+        <v>0.3185432229357446</v>
       </c>
       <c r="D25">
-        <v>0.006018242358801995</v>
+        <v>0.4400279637055888</v>
       </c>
       <c r="E25">
-        <v>0.5512040067739221</v>
+        <v>0.05043386547752782</v>
       </c>
       <c r="F25">
-        <v>3.243383441663411</v>
+        <v>7.822738717626493</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.361046451569734</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4024062232288941</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6459459729887556</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3482336740836729</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.40266336066702</v>
+        <v>1.649406579919457</v>
       </c>
       <c r="C2">
-        <v>0.2631888217823217</v>
+        <v>0.1096746004995737</v>
       </c>
       <c r="D2">
-        <v>0.3839180528064361</v>
+        <v>0.001543020672248652</v>
       </c>
       <c r="E2">
-        <v>0.04594188481461359</v>
+        <v>0.02138718001273521</v>
       </c>
       <c r="F2">
-        <v>6.662971319011945</v>
+        <v>2.698273437014763</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07646042881104087</v>
       </c>
       <c r="K2">
-        <v>0.5296804700982491</v>
+        <v>1.468696178293044</v>
       </c>
       <c r="L2">
-        <v>0.292676255892701</v>
+        <v>0.1273580379467063</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2984579112004333</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.867351976753127</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.078656012101874</v>
+        <v>1.484460763048446</v>
       </c>
       <c r="C3">
-        <v>0.2271973240928986</v>
+        <v>0.09458953894289834</v>
       </c>
       <c r="D3">
-        <v>0.3472399981451275</v>
+        <v>0.001550590678077945</v>
       </c>
       <c r="E3">
-        <v>0.04303538028188925</v>
+        <v>0.02129857069224084</v>
       </c>
       <c r="F3">
-        <v>5.905795094630093</v>
+        <v>2.604865197741873</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07718576481481954</v>
       </c>
       <c r="K3">
-        <v>0.4543896114747028</v>
+        <v>1.306736191038254</v>
       </c>
       <c r="L3">
-        <v>0.2566614406156873</v>
+        <v>0.118987504571173</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2710046438077924</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.880533295623579</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.885808076331045</v>
+        <v>1.385320928712929</v>
       </c>
       <c r="C4">
-        <v>0.2056508809947672</v>
+        <v>0.08543682845136402</v>
       </c>
       <c r="D4">
-        <v>0.3252236205306076</v>
+        <v>0.001554458451816565</v>
       </c>
       <c r="E4">
-        <v>0.04130646193336851</v>
+        <v>0.02125786027940801</v>
       </c>
       <c r="F4">
-        <v>5.451988736846346</v>
+        <v>2.550738496194356</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07767018017520044</v>
       </c>
       <c r="K4">
-        <v>0.4095272580091702</v>
+        <v>1.209197439303182</v>
       </c>
       <c r="L4">
-        <v>0.2352006665308863</v>
+        <v>0.1140035219677884</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2545335744349231</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.890777064034083</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.808556228750774</v>
+        <v>1.345414421571405</v>
       </c>
       <c r="C5">
-        <v>0.1969836806012495</v>
+        <v>0.08173034977541249</v>
       </c>
       <c r="D5">
-        <v>0.3163573860306172</v>
+        <v>0.001555789913640915</v>
       </c>
       <c r="E5">
-        <v>0.04061430531149668</v>
+        <v>0.02124464947313154</v>
       </c>
       <c r="F5">
-        <v>5.269443058407035</v>
+        <v>2.529448218769261</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07787727743991546</v>
       </c>
       <c r="K5">
-        <v>0.3915419517653689</v>
+        <v>1.169885574742466</v>
       </c>
       <c r="L5">
-        <v>0.226598986655091</v>
+        <v>0.1120093749884816</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2479110930260653</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.895472499035606</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.795803903083879</v>
+        <v>1.338816575043296</v>
       </c>
       <c r="C6">
-        <v>0.1955506346967724</v>
+        <v>0.08111618242610064</v>
       </c>
       <c r="D6">
-        <v>0.3148909564654474</v>
+        <v>0.001555994995558585</v>
       </c>
       <c r="E6">
-        <v>0.04050007763955144</v>
+        <v>0.02124265811061843</v>
       </c>
       <c r="F6">
-        <v>5.239264351869792</v>
+        <v>2.525958050979128</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07791224773701799</v>
       </c>
       <c r="K6">
-        <v>0.388572129685187</v>
+        <v>1.163382993221688</v>
       </c>
       <c r="L6">
-        <v>0.2251788133565498</v>
+        <v>0.1116804120171437</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2468166433988834</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.896283089362967</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.88476106955946</v>
+        <v>1.384780792030455</v>
       </c>
       <c r="C7">
-        <v>0.2055335658802306</v>
+        <v>0.08538675252127348</v>
       </c>
       <c r="D7">
-        <v>0.3251036461138028</v>
+        <v>0.001554477455871783</v>
       </c>
       <c r="E7">
-        <v>0.04129707910438718</v>
+        <v>0.02125766851442812</v>
       </c>
       <c r="F7">
-        <v>5.449517717317406</v>
+        <v>2.550448320036708</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07767293407152565</v>
       </c>
       <c r="K7">
-        <v>0.4092835600811924</v>
+        <v>1.208665555497959</v>
       </c>
       <c r="L7">
-        <v>0.2350841044870151</v>
+        <v>0.1139764818012523</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2544439077800753</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.890838303812515</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.28955512505479</v>
+        <v>1.592062341327278</v>
       </c>
       <c r="C8">
-        <v>0.2506477881114932</v>
+        <v>0.1044478868031575</v>
       </c>
       <c r="D8">
-        <v>0.3711533883008826</v>
+        <v>0.001545760322397172</v>
       </c>
       <c r="E8">
-        <v>0.0449271397661537</v>
+        <v>0.0213537440904803</v>
       </c>
       <c r="F8">
-        <v>6.399333084191966</v>
+        <v>2.66536891379414</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07670233944075022</v>
       </c>
       <c r="K8">
-        <v>0.5034064570206596</v>
+        <v>1.412430011425386</v>
       </c>
       <c r="L8">
-        <v>0.2801099972046046</v>
+        <v>0.1244381887103501</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.288907502323589</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.871438289775668</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.141935437729785</v>
+        <v>2.017647178230447</v>
       </c>
       <c r="C9">
-        <v>0.3448494531441497</v>
+        <v>0.1429043299558401</v>
       </c>
       <c r="D9">
-        <v>0.4665460296497628</v>
+        <v>0.001525254487418692</v>
       </c>
       <c r="E9">
-        <v>0.05257048924242191</v>
+        <v>0.02165406794556457</v>
       </c>
       <c r="F9">
-        <v>8.371049180690079</v>
+        <v>2.918505265630998</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07511508993578886</v>
       </c>
       <c r="K9">
-        <v>0.701275443847635</v>
+        <v>1.829247387032638</v>
       </c>
       <c r="L9">
-        <v>0.3746320330295134</v>
+        <v>0.1462982921679057</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3599055749931352</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.85142034510551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.82066588302547</v>
+        <v>2.345240785985936</v>
       </c>
       <c r="C10">
-        <v>0.4197914404387006</v>
+        <v>0.1721337147242252</v>
       </c>
       <c r="D10">
-        <v>0.5415073136290687</v>
+        <v>0.001513015754012415</v>
       </c>
       <c r="E10">
-        <v>0.0586408018093536</v>
+        <v>0.02194798465299375</v>
       </c>
       <c r="F10">
-        <v>9.920457420010962</v>
+        <v>3.124730063367352</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07415102133300344</v>
       </c>
       <c r="K10">
-        <v>0.8587835497713741</v>
+        <v>2.149218884481286</v>
       </c>
       <c r="L10">
-        <v>0.4495850864739168</v>
+        <v>0.1633468808654186</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4146943030166526</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.84916511089169</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.145476590988096</v>
+        <v>2.498317169769905</v>
       </c>
       <c r="C11">
-        <v>0.4557581688702612</v>
+        <v>0.1857219727410921</v>
       </c>
       <c r="D11">
-        <v>0.5771546051098824</v>
+        <v>0.001509502432467613</v>
       </c>
       <c r="E11">
-        <v>0.06153792830881955</v>
+        <v>0.02209887395373755</v>
       </c>
       <c r="F11">
-        <v>10.65660261658263</v>
+        <v>3.22376153627178</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07375865535553316</v>
       </c>
       <c r="K11">
-        <v>0.9341913063617113</v>
+        <v>2.298562440207093</v>
       </c>
       <c r="L11">
-        <v>0.4853493281807317</v>
+        <v>0.1713586856995519</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4403237292581252</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.851206322434081</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.271260374110966</v>
+        <v>2.556940082129188</v>
       </c>
       <c r="C12">
-        <v>0.4697132180862695</v>
+        <v>0.1909167858629388</v>
       </c>
       <c r="D12">
-        <v>0.5909255593593912</v>
+        <v>0.001508618927584138</v>
       </c>
       <c r="E12">
-        <v>0.06265826386632156</v>
+        <v>0.02215860145916793</v>
       </c>
       <c r="F12">
-        <v>10.94082432931094</v>
+        <v>3.26208823695913</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07361693796052116</v>
       </c>
       <c r="K12">
-        <v>0.9634019781478571</v>
+        <v>2.355732934326994</v>
       </c>
       <c r="L12">
-        <v>0.4991802385873569</v>
+        <v>0.1744332035812164</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4501427496872026</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.852454248232789</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.24403813042494</v>
+        <v>2.544284156378978</v>
       </c>
       <c r="C13">
-        <v>0.4666916487671813</v>
+        <v>0.1897956758284209</v>
       </c>
       <c r="D13">
-        <v>0.5879467444540296</v>
+        <v>0.001508786608187762</v>
       </c>
       <c r="E13">
-        <v>0.06241587811971527</v>
+        <v>0.02214562091142991</v>
       </c>
       <c r="F13">
-        <v>10.87935210033419</v>
+        <v>3.253795898772609</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07364715035235925</v>
       </c>
       <c r="K13">
-        <v>0.9570797091283225</v>
+        <v>2.343391552997019</v>
       </c>
       <c r="L13">
-        <v>0.496187844541609</v>
+        <v>0.1737691806727</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.4480227830035659</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.852163783738433</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.155766021884858</v>
+        <v>2.503126514021744</v>
       </c>
       <c r="C14">
-        <v>0.4568991168178513</v>
+        <v>0.1861483219029196</v>
       </c>
       <c r="D14">
-        <v>0.5782817787246302</v>
+        <v>0.001509419819020863</v>
       </c>
       <c r="E14">
-        <v>0.06162960897889747</v>
+        <v>0.02210373516342212</v>
       </c>
       <c r="F14">
-        <v>10.67987016712857</v>
+        <v>3.226897692893942</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07374685729216068</v>
       </c>
       <c r="K14">
-        <v>0.9365806101112781</v>
+        <v>2.303253076286722</v>
       </c>
       <c r="L14">
-        <v>0.4864811312088761</v>
+        <v>0.1716107911727178</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.4411291927044871</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.851299264461318</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.102075212165857</v>
+        <v>2.47800403091037</v>
       </c>
       <c r="C15">
-        <v>0.4509467399351763</v>
+        <v>0.1839208535764669</v>
       </c>
       <c r="D15">
-        <v>0.5723987754928146</v>
+        <v>0.001509870864895291</v>
       </c>
       <c r="E15">
-        <v>0.06115114794468468</v>
+        <v>0.02207841981279923</v>
       </c>
       <c r="F15">
-        <v>10.55842416246861</v>
+        <v>3.210531644824897</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07380883136703709</v>
       </c>
       <c r="K15">
-        <v>0.9241134741487116</v>
+        <v>2.278749777889118</v>
       </c>
       <c r="L15">
-        <v>0.4805745414424365</v>
+        <v>0.170294123242428</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.4369218615772255</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.850832641178897</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.799800485302455</v>
+        <v>2.335324548996766</v>
       </c>
       <c r="C16">
-        <v>0.4174839753692083</v>
+        <v>0.171252165612259</v>
       </c>
       <c r="D16">
-        <v>0.5392128476364348</v>
+        <v>0.001513299009345381</v>
       </c>
       <c r="E16">
-        <v>0.05845450327301904</v>
+        <v>0.02193847927388148</v>
       </c>
       <c r="F16">
-        <v>9.873056534631303</v>
+        <v>3.118369398867671</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07417761126440858</v>
       </c>
       <c r="K16">
-        <v>0.8539404199516412</v>
+        <v>2.139541194313381</v>
       </c>
       <c r="L16">
-        <v>0.4472852691452687</v>
+        <v>0.1628287619038673</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.4130345798059452</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.84909625328612</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.618788109707793</v>
+        <v>2.248883305538129</v>
       </c>
       <c r="C17">
-        <v>0.397478632914428</v>
+        <v>0.1635599954102105</v>
       </c>
       <c r="D17">
-        <v>0.519283139809346</v>
+        <v>0.001516027336030845</v>
       </c>
       <c r="E17">
-        <v>0.05683741507638373</v>
+        <v>0.0218571117033326</v>
       </c>
       <c r="F17">
-        <v>9.46125312134987</v>
+        <v>3.063218717301297</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07441582726298712</v>
       </c>
       <c r="K17">
-        <v>0.8119289628923525</v>
+        <v>2.055160737115756</v>
       </c>
       <c r="L17">
-        <v>0.4273219709463234</v>
+        <v>0.1583172200673602</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3985696019815705</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.848839677170403</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.516152306387028</v>
+        <v>2.199541220069364</v>
       </c>
       <c r="C18">
-        <v>0.3861439881803221</v>
+        <v>0.1591626364740932</v>
       </c>
       <c r="D18">
-        <v>0.5079622633653003</v>
+        <v>0.001517779305114431</v>
       </c>
       <c r="E18">
-        <v>0.05591982301005238</v>
+        <v>0.02181192100534535</v>
       </c>
       <c r="F18">
-        <v>9.227275422504619</v>
+        <v>3.031983805107274</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07455717634511316</v>
       </c>
       <c r="K18">
-        <v>0.7881106195300447</v>
+        <v>2.006979014029127</v>
       </c>
       <c r="L18">
-        <v>0.4159932513859843</v>
+        <v>0.1557461806897678</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3903153602431217</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.848978571734733</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.481642285024748</v>
+        <v>2.182897400005515</v>
       </c>
       <c r="C19">
-        <v>0.3823340049010255</v>
+        <v>0.1576781889110634</v>
       </c>
       <c r="D19">
-        <v>0.5041522575069166</v>
+        <v>0.001518399705199514</v>
       </c>
       <c r="E19">
-        <v>0.0556111881151633</v>
+        <v>0.0217968933062398</v>
       </c>
       <c r="F19">
-        <v>9.148522969953717</v>
+        <v>3.021489550564667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.0746057726351772</v>
       </c>
       <c r="K19">
-        <v>0.7801023208007436</v>
+        <v>1.990723809358542</v>
       </c>
       <c r="L19">
-        <v>0.4121826076163302</v>
+        <v>0.1548796634594041</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3875315344081471</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.84907382198088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.637901077458764</v>
+        <v>2.258045633836502</v>
       </c>
       <c r="C20">
-        <v>0.3995900111500248</v>
+        <v>0.1643759979084791</v>
       </c>
       <c r="D20">
-        <v>0.5213896468990242</v>
+        <v>0.001515716982831705</v>
       </c>
       <c r="E20">
-        <v>0.05700823671841349</v>
+        <v>0.02186560600116216</v>
       </c>
       <c r="F20">
-        <v>9.50478577223717</v>
+        <v>3.06903874989365</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07439001872993245</v>
       </c>
       <c r="K20">
-        <v>0.8163646273457061</v>
+        <v>2.064106278236125</v>
       </c>
       <c r="L20">
-        <v>0.4294308771637674</v>
+        <v>0.1587949837660574</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4001025461879593</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.848837106677109</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.181613835726864</v>
+        <v>2.515197080441055</v>
       </c>
       <c r="C21">
-        <v>0.4597657329149456</v>
+        <v>0.1872182400195328</v>
       </c>
       <c r="D21">
-        <v>0.5811127864626258</v>
+        <v>0.001509220350304652</v>
       </c>
       <c r="E21">
-        <v>0.06185989082742793</v>
+        <v>0.0221159667552584</v>
       </c>
       <c r="F21">
-        <v>10.73830615408275</v>
+        <v>3.234775304335955</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07371738281815077</v>
       </c>
       <c r="K21">
-        <v>0.9425828743261206</v>
+        <v>2.315025349722418</v>
       </c>
       <c r="L21">
-        <v>0.4893239910283</v>
+        <v>0.1722436282391726</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4431508177549404</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.85154001685936</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.553487482134813</v>
+        <v>2.687124762461281</v>
       </c>
       <c r="C22">
-        <v>0.5010889206498348</v>
+        <v>0.2024378967307712</v>
       </c>
       <c r="D22">
-        <v>0.6217615865653841</v>
+        <v>0.001507671208218042</v>
       </c>
       <c r="E22">
-        <v>0.06516855707335978</v>
+        <v>0.02229474690673783</v>
       </c>
       <c r="F22">
-        <v>11.57688823591246</v>
+        <v>3.347946565328556</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07331789832896263</v>
       </c>
       <c r="K22">
-        <v>1.028964890325511</v>
+        <v>2.482652888675915</v>
       </c>
       <c r="L22">
-        <v>0.5301741743269304</v>
+        <v>0.1812718828174056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4719547199340255</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.856093286216975</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.353316522529212</v>
+        <v>2.594983928139243</v>
       </c>
       <c r="C23">
-        <v>0.4788260482604016</v>
+        <v>0.1942856450665857</v>
       </c>
       <c r="D23">
-        <v>0.5998996958512635</v>
+        <v>0.001508193484203169</v>
       </c>
       <c r="E23">
-        <v>0.06338862157629066</v>
+        <v>0.02219789953387252</v>
       </c>
       <c r="F23">
-        <v>11.1259905989312</v>
+        <v>3.287074065488497</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07352736083055156</v>
       </c>
       <c r="K23">
-        <v>0.9824608675701683</v>
+        <v>2.392828114849266</v>
       </c>
       <c r="L23">
-        <v>0.5081971874449351</v>
+        <v>0.1764301438760825</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4565159289927649</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.853396001258261</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.629255683366807</v>
+        <v>2.253902247620658</v>
       </c>
       <c r="C24">
-        <v>0.3986349425907036</v>
+        <v>0.1640070059382168</v>
       </c>
       <c r="D24">
-        <v>0.520436871994292</v>
+        <v>0.001515856733314003</v>
       </c>
       <c r="E24">
-        <v>0.05693097085717014</v>
+        <v>0.02186176078973734</v>
       </c>
       <c r="F24">
-        <v>9.485096091492125</v>
+        <v>3.066406048733739</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07440167309302304</v>
       </c>
       <c r="K24">
-        <v>0.81435822961285</v>
+        <v>2.060060977485591</v>
       </c>
       <c r="L24">
-        <v>0.4284769817743097</v>
+        <v>0.1585789163534059</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3994093103207277</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.848837379235917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.903499173886985</v>
+        <v>1.900149258831647</v>
       </c>
       <c r="C25">
-        <v>0.3185432229357446</v>
+        <v>0.1323543538711078</v>
       </c>
       <c r="D25">
-        <v>0.4400279637055888</v>
+        <v>0.00153072290545353</v>
       </c>
       <c r="E25">
-        <v>0.05043386547752782</v>
+        <v>0.02156035056130801</v>
       </c>
       <c r="F25">
-        <v>7.822738717626493</v>
+        <v>2.84672697337416</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07550972685496227</v>
       </c>
       <c r="K25">
-        <v>0.6459459729887556</v>
+        <v>1.714325660441432</v>
       </c>
       <c r="L25">
-        <v>0.3482336740836729</v>
+        <v>0.140224090984276</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3402797101120996</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.854762989011746</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649406579919457</v>
+        <v>2.124600112295553</v>
       </c>
       <c r="C2">
-        <v>0.1096746004995737</v>
+        <v>0.03465183341573663</v>
       </c>
       <c r="D2">
-        <v>0.001543020672248652</v>
+        <v>0.003026854328761708</v>
       </c>
       <c r="E2">
-        <v>0.02138718001273521</v>
+        <v>0.06674794700219699</v>
       </c>
       <c r="F2">
-        <v>2.698273437014763</v>
+        <v>4.687133108435773</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07646042881104087</v>
+        <v>0.1815652751018284</v>
       </c>
       <c r="K2">
-        <v>1.468696178293044</v>
+        <v>1.585180651292916</v>
       </c>
       <c r="L2">
-        <v>0.1273580379467063</v>
+        <v>0.2706623424018915</v>
       </c>
       <c r="M2">
-        <v>0.2984579112004333</v>
+        <v>0.4434864055175858</v>
       </c>
       <c r="N2">
-        <v>2.867351976753127</v>
+        <v>4.954385763929537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.484460763048446</v>
+        <v>2.095091171269956</v>
       </c>
       <c r="C3">
-        <v>0.09458953894289834</v>
+        <v>0.03053409699747078</v>
       </c>
       <c r="D3">
-        <v>0.001550590678077945</v>
+        <v>0.003034667849737716</v>
       </c>
       <c r="E3">
-        <v>0.02129857069224084</v>
+        <v>0.06694640041787991</v>
       </c>
       <c r="F3">
-        <v>2.604865197741873</v>
+        <v>4.678831105747776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07718576481481954</v>
+        <v>0.1820829666192836</v>
       </c>
       <c r="K3">
-        <v>1.306736191038254</v>
+        <v>1.553133237958463</v>
       </c>
       <c r="L3">
-        <v>0.118987504571173</v>
+        <v>0.2701311971990705</v>
       </c>
       <c r="M3">
-        <v>0.2710046438077924</v>
+        <v>0.4391798820445487</v>
       </c>
       <c r="N3">
-        <v>2.880533295623579</v>
+        <v>4.962651873587646</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.385320928712929</v>
+        <v>2.078074266701861</v>
       </c>
       <c r="C4">
-        <v>0.08543682845136402</v>
+        <v>0.02801690480386299</v>
       </c>
       <c r="D4">
-        <v>0.001554458451816565</v>
+        <v>0.00304169749619243</v>
       </c>
       <c r="E4">
-        <v>0.02125786027940801</v>
+        <v>0.06708069524931926</v>
       </c>
       <c r="F4">
-        <v>2.550738496194356</v>
+        <v>4.675267130709813</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07767018017520044</v>
+        <v>0.1824263713628049</v>
       </c>
       <c r="K4">
-        <v>1.209197439303182</v>
+        <v>1.534345845640274</v>
       </c>
       <c r="L4">
-        <v>0.1140035219677884</v>
+        <v>0.2699131463232547</v>
       </c>
       <c r="M4">
-        <v>0.2545335744349231</v>
+        <v>0.4367519697315636</v>
       </c>
       <c r="N4">
-        <v>2.890777064034083</v>
+        <v>4.968628249207143</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345414421571405</v>
+        <v>2.071417062371722</v>
       </c>
       <c r="C5">
-        <v>0.08173034977541249</v>
+        <v>0.02699386853315389</v>
       </c>
       <c r="D5">
-        <v>0.001555789913640915</v>
+        <v>0.003045128267902264</v>
       </c>
       <c r="E5">
-        <v>0.02124464947313154</v>
+        <v>0.06713855970862159</v>
       </c>
       <c r="F5">
-        <v>2.529448218769261</v>
+        <v>4.674200608056225</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07787727743991546</v>
+        <v>0.1825727468248264</v>
       </c>
       <c r="K5">
-        <v>1.169885574742466</v>
+        <v>1.526913707004383</v>
       </c>
       <c r="L5">
-        <v>0.1120093749884816</v>
+        <v>0.2698515205998575</v>
       </c>
       <c r="M5">
-        <v>0.2479110930260653</v>
+        <v>0.4358170429632011</v>
       </c>
       <c r="N5">
-        <v>2.895472499035606</v>
+        <v>4.971290242682272</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.338816575043296</v>
+        <v>2.07032839697186</v>
       </c>
       <c r="C6">
-        <v>0.08111618242610064</v>
+        <v>0.02682415803369054</v>
       </c>
       <c r="D6">
-        <v>0.001555994995558585</v>
+        <v>0.003045732282761726</v>
       </c>
       <c r="E6">
-        <v>0.02124265811061843</v>
+        <v>0.06714835786951934</v>
       </c>
       <c r="F6">
-        <v>2.525958050979128</v>
+        <v>4.67404682231448</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07791224773701799</v>
+        <v>0.1825974414142628</v>
       </c>
       <c r="K6">
-        <v>1.163382993221688</v>
+        <v>1.52569313123567</v>
       </c>
       <c r="L6">
-        <v>0.1116804120171437</v>
+        <v>0.2698429340734805</v>
       </c>
       <c r="M6">
-        <v>0.2468166433988834</v>
+        <v>0.4356650909848305</v>
       </c>
       <c r="N6">
-        <v>2.896283089362967</v>
+        <v>4.971745949734725</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.384780792030455</v>
+        <v>2.077983362062525</v>
       </c>
       <c r="C7">
-        <v>0.08538675252127348</v>
+        <v>0.02800309675703261</v>
       </c>
       <c r="D7">
-        <v>0.001554477455871783</v>
+        <v>0.003041741466232928</v>
       </c>
       <c r="E7">
-        <v>0.02125766851442812</v>
+        <v>0.06708146291069461</v>
       </c>
       <c r="F7">
-        <v>2.550448320036708</v>
+        <v>4.675251184742024</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07767293407152565</v>
+        <v>0.1824283193602394</v>
       </c>
       <c r="K7">
-        <v>1.208665555497959</v>
+        <v>1.534244706596382</v>
       </c>
       <c r="L7">
-        <v>0.1139764818012523</v>
+        <v>0.269912204882587</v>
       </c>
       <c r="M7">
-        <v>0.2544439077800753</v>
+        <v>0.436739140347747</v>
       </c>
       <c r="N7">
-        <v>2.890838303812515</v>
+        <v>4.96866323239631</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.592062341327278</v>
+        <v>2.114196927825901</v>
       </c>
       <c r="C8">
-        <v>0.1044478868031575</v>
+        <v>0.03322969673264708</v>
       </c>
       <c r="D8">
-        <v>0.001545760322397172</v>
+        <v>0.003029088013441594</v>
       </c>
       <c r="E8">
-        <v>0.0213537440904803</v>
+        <v>0.066813796540802</v>
       </c>
       <c r="F8">
-        <v>2.66536891379414</v>
+        <v>4.683952420569895</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07670233944075022</v>
+        <v>0.1817384820798758</v>
       </c>
       <c r="K8">
-        <v>1.412430011425386</v>
+        <v>1.573946068750018</v>
       </c>
       <c r="L8">
-        <v>0.1244381887103501</v>
+        <v>0.2704568051335769</v>
       </c>
       <c r="M8">
-        <v>0.288907502323589</v>
+        <v>0.4419566626578018</v>
       </c>
       <c r="N8">
-        <v>2.871438289775668</v>
+        <v>4.957048935011912</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.017647178230447</v>
+        <v>2.193947096612362</v>
       </c>
       <c r="C9">
-        <v>0.1429043299558401</v>
+        <v>0.04357022541930178</v>
       </c>
       <c r="D9">
-        <v>0.001525254487418692</v>
+        <v>0.003021782675126872</v>
       </c>
       <c r="E9">
-        <v>0.02165406794556457</v>
+        <v>0.06638724160044251</v>
       </c>
       <c r="F9">
-        <v>2.918505265630998</v>
+        <v>4.713178617154426</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07511508993578886</v>
+        <v>0.1805877909151974</v>
       </c>
       <c r="K9">
-        <v>1.829247387032638</v>
+        <v>1.658862247266512</v>
       </c>
       <c r="L9">
-        <v>0.1462982921679057</v>
+        <v>0.2723801896238527</v>
       </c>
       <c r="M9">
-        <v>0.3599055749931352</v>
+        <v>0.4539023922264889</v>
       </c>
       <c r="N9">
-        <v>2.85142034510551</v>
+        <v>4.941422483043809</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.345240785985936</v>
+        <v>2.257866694958523</v>
       </c>
       <c r="C10">
-        <v>0.1721337147242252</v>
+        <v>0.0512278868410192</v>
       </c>
       <c r="D10">
-        <v>0.001513015754012415</v>
+        <v>0.003026831374881134</v>
       </c>
       <c r="E10">
-        <v>0.02194798465299375</v>
+        <v>0.0661332772248846</v>
       </c>
       <c r="F10">
-        <v>3.124730063367352</v>
+        <v>4.742067719299726</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07415102133300344</v>
+        <v>0.1798648009064632</v>
       </c>
       <c r="K10">
-        <v>2.149218884481286</v>
+        <v>1.725566787454426</v>
       </c>
       <c r="L10">
-        <v>0.1633468808654186</v>
+        <v>0.2743124820923484</v>
       </c>
       <c r="M10">
-        <v>0.4146943030166526</v>
+        <v>0.463722706681736</v>
       </c>
       <c r="N10">
-        <v>2.84916511089169</v>
+        <v>4.934302829133259</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.498317169769905</v>
+        <v>2.288103256788702</v>
       </c>
       <c r="C11">
-        <v>0.1857219727410921</v>
+        <v>0.05472578712610243</v>
       </c>
       <c r="D11">
-        <v>0.001509502432467613</v>
+        <v>0.003031338556683139</v>
       </c>
       <c r="E11">
-        <v>0.02209887395373755</v>
+        <v>0.06603053666038505</v>
       </c>
       <c r="F11">
-        <v>3.22376153627178</v>
+        <v>4.75682157244708</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07375865535553316</v>
+        <v>0.1795623159598598</v>
       </c>
       <c r="K11">
-        <v>2.298562440207093</v>
+        <v>1.756852895071546</v>
       </c>
       <c r="L11">
-        <v>0.1713586856995519</v>
+        <v>0.2753038214119385</v>
       </c>
       <c r="M11">
-        <v>0.4403237292581252</v>
+        <v>0.4684167409202331</v>
       </c>
       <c r="N11">
-        <v>2.851206322434081</v>
+        <v>4.932011715581297</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.556940082129188</v>
+        <v>2.299719653436853</v>
       </c>
       <c r="C12">
-        <v>0.1909167858629388</v>
+        <v>0.05605249330537276</v>
       </c>
       <c r="D12">
-        <v>0.001508618927584138</v>
+        <v>0.00303335903619395</v>
       </c>
       <c r="E12">
-        <v>0.02215860145916793</v>
+        <v>0.06599346164794451</v>
       </c>
       <c r="F12">
-        <v>3.26208823695913</v>
+        <v>4.762640239423661</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07361693796052116</v>
+        <v>0.1794515574381457</v>
       </c>
       <c r="K12">
-        <v>2.355732934326994</v>
+        <v>1.768835643942452</v>
       </c>
       <c r="L12">
-        <v>0.1744332035812164</v>
+        <v>0.2756953232585815</v>
       </c>
       <c r="M12">
-        <v>0.4501427496872026</v>
+        <v>0.4702268103815115</v>
       </c>
       <c r="N12">
-        <v>2.852454248232789</v>
+        <v>4.93128045146716</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.544284156378978</v>
+        <v>2.297210454450521</v>
       </c>
       <c r="C13">
-        <v>0.1897956758284209</v>
+        <v>0.05576666785709961</v>
       </c>
       <c r="D13">
-        <v>0.001508786608187762</v>
+        <v>0.003032910002437106</v>
       </c>
       <c r="E13">
-        <v>0.02214562091142991</v>
+        <v>0.06600136513220978</v>
       </c>
       <c r="F13">
-        <v>3.253795898772609</v>
+        <v>4.761376781971052</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07364715035235925</v>
+        <v>0.1794752430650881</v>
       </c>
       <c r="K13">
-        <v>2.343391552997019</v>
+        <v>1.766248924478106</v>
       </c>
       <c r="L13">
-        <v>0.1737691806727</v>
+        <v>0.2756102909237441</v>
       </c>
       <c r="M13">
-        <v>0.4480227830035659</v>
+        <v>0.4698355332598325</v>
       </c>
       <c r="N13">
-        <v>2.852163783738433</v>
+        <v>4.931431877923501</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.503126514021744</v>
+        <v>2.289055609761874</v>
       </c>
       <c r="C14">
-        <v>0.1861483219029196</v>
+        <v>0.05483489307628986</v>
       </c>
       <c r="D14">
-        <v>0.001509419819020863</v>
+        <v>0.00303149851923834</v>
       </c>
       <c r="E14">
-        <v>0.02210373516342212</v>
+        <v>0.0660274498367901</v>
       </c>
       <c r="F14">
-        <v>3.226897692893942</v>
+        <v>4.75729563460402</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07374685729216068</v>
+        <v>0.1795531279776093</v>
       </c>
       <c r="K14">
-        <v>2.303253076286722</v>
+        <v>1.757836010170337</v>
       </c>
       <c r="L14">
-        <v>0.1716107911727178</v>
+        <v>0.2753357080559695</v>
       </c>
       <c r="M14">
-        <v>0.4411291927044871</v>
+        <v>0.4685650046134384</v>
       </c>
       <c r="N14">
-        <v>2.851299264461318</v>
+        <v>4.931948821413158</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.47800403091037</v>
+        <v>2.28408220421602</v>
       </c>
       <c r="C15">
-        <v>0.1839208535764669</v>
+        <v>0.05426443287086613</v>
       </c>
       <c r="D15">
-        <v>0.001509870864895291</v>
+        <v>0.00303067467873408</v>
       </c>
       <c r="E15">
-        <v>0.02207841981279923</v>
+        <v>0.06604366562147757</v>
       </c>
       <c r="F15">
-        <v>3.210531644824897</v>
+        <v>4.754825985474525</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07380883136703709</v>
+        <v>0.1796013274462176</v>
       </c>
       <c r="K15">
-        <v>2.278749777889118</v>
+        <v>1.752700485839966</v>
       </c>
       <c r="L15">
-        <v>0.170294123242428</v>
+        <v>0.275169613762742</v>
       </c>
       <c r="M15">
-        <v>0.4369218615772255</v>
+        <v>0.4677910050555667</v>
       </c>
       <c r="N15">
-        <v>2.850832641178897</v>
+        <v>4.932283220370778</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.335324548996766</v>
+        <v>2.255913971357757</v>
       </c>
       <c r="C16">
-        <v>0.171252165612259</v>
+        <v>0.05099958535633675</v>
       </c>
       <c r="D16">
-        <v>0.001513299009345381</v>
+        <v>0.003026580941432933</v>
       </c>
       <c r="E16">
-        <v>0.02193847927388148</v>
+        <v>0.06614024818824848</v>
       </c>
       <c r="F16">
-        <v>3.118369398867671</v>
+        <v>4.741135949515154</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07417761126440858</v>
+        <v>0.1798850994131822</v>
       </c>
       <c r="K16">
-        <v>2.139541194313381</v>
+        <v>1.723541114289617</v>
       </c>
       <c r="L16">
-        <v>0.1628287619038673</v>
+        <v>0.2742499518342285</v>
       </c>
       <c r="M16">
-        <v>0.4130345798059452</v>
+        <v>0.4634204974346048</v>
       </c>
       <c r="N16">
-        <v>2.84909625328612</v>
+        <v>4.934471632974208</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.248883305538129</v>
+        <v>2.238930412143645</v>
       </c>
       <c r="C17">
-        <v>0.1635599954102105</v>
+        <v>0.04900043417235622</v>
       </c>
       <c r="D17">
-        <v>0.001516027336030845</v>
+        <v>0.003024632721278842</v>
       </c>
       <c r="E17">
-        <v>0.0218571117033326</v>
+        <v>0.06620276802613567</v>
       </c>
       <c r="F17">
-        <v>3.063218717301297</v>
+        <v>4.733150362289336</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07441582726298712</v>
+        <v>0.1800659396665125</v>
       </c>
       <c r="K17">
-        <v>2.055160737115756</v>
+        <v>1.705893975698473</v>
       </c>
       <c r="L17">
-        <v>0.1583172200673602</v>
+        <v>0.2737145038056497</v>
       </c>
       <c r="M17">
-        <v>0.3985696019815705</v>
+        <v>0.460797357428973</v>
       </c>
       <c r="N17">
-        <v>2.848839677170403</v>
+        <v>4.936056910807224</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.199541220069364</v>
+        <v>2.229271042079461</v>
       </c>
       <c r="C18">
-        <v>0.1591626364740932</v>
+        <v>0.04785192642617631</v>
       </c>
       <c r="D18">
-        <v>0.001517779305114431</v>
+        <v>0.003023720459800927</v>
       </c>
       <c r="E18">
-        <v>0.02181192100534535</v>
+        <v>0.0662399320552316</v>
       </c>
       <c r="F18">
-        <v>3.031983805107274</v>
+        <v>4.728709003989522</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07455717634511316</v>
+        <v>0.180172440401849</v>
       </c>
       <c r="K18">
-        <v>2.006979014029127</v>
+        <v>1.695832465619532</v>
       </c>
       <c r="L18">
-        <v>0.1557461806897678</v>
+        <v>0.2734171042082352</v>
       </c>
       <c r="M18">
-        <v>0.3903153602431217</v>
+        <v>0.4593099406316696</v>
       </c>
       <c r="N18">
-        <v>2.848978571734733</v>
+        <v>4.93705791432167</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182897400005515</v>
+        <v>2.226019294536115</v>
       </c>
       <c r="C19">
-        <v>0.1576781889110634</v>
+        <v>0.04746329174365371</v>
       </c>
       <c r="D19">
-        <v>0.001518399705199514</v>
+        <v>0.003023447488236464</v>
       </c>
       <c r="E19">
-        <v>0.0217968933062398</v>
+        <v>0.06625272225026269</v>
       </c>
       <c r="F19">
-        <v>3.021489550564667</v>
+        <v>4.727231301377316</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0746057726351772</v>
+        <v>0.1802089270757516</v>
       </c>
       <c r="K19">
-        <v>1.990723809358542</v>
+        <v>1.692441040157263</v>
       </c>
       <c r="L19">
-        <v>0.1548796634594041</v>
+        <v>0.2733182277684705</v>
       </c>
       <c r="M19">
-        <v>0.3875315344081471</v>
+        <v>0.458809994619827</v>
       </c>
       <c r="N19">
-        <v>2.84907382198088</v>
+        <v>4.937412154290755</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.258045633836502</v>
+        <v>2.24072704875482</v>
       </c>
       <c r="C20">
-        <v>0.1643759979084791</v>
+        <v>0.04921310697359615</v>
       </c>
       <c r="D20">
-        <v>0.001515716982831705</v>
+        <v>0.003024818584154154</v>
       </c>
       <c r="E20">
-        <v>0.02186560600116216</v>
+        <v>0.06619598810656768</v>
       </c>
       <c r="F20">
-        <v>3.06903874989365</v>
+        <v>4.733984737928139</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07439001872993245</v>
+        <v>0.1800464316817418</v>
       </c>
       <c r="K20">
-        <v>2.064106278236125</v>
+        <v>1.707763368498576</v>
       </c>
       <c r="L20">
-        <v>0.1587949837660574</v>
+        <v>0.2737704089546114</v>
       </c>
       <c r="M20">
-        <v>0.4001025461879593</v>
+        <v>0.4610743865949303</v>
       </c>
       <c r="N20">
-        <v>2.848837106677109</v>
+        <v>4.935878923628636</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.515197080441055</v>
+        <v>2.291446369232062</v>
       </c>
       <c r="C21">
-        <v>0.1872182400195328</v>
+        <v>0.05510851972036335</v>
       </c>
       <c r="D21">
-        <v>0.001509220350304652</v>
+        <v>0.003031904624647197</v>
       </c>
       <c r="E21">
-        <v>0.0221159667552584</v>
+        <v>0.06601973851139586</v>
       </c>
       <c r="F21">
-        <v>3.234775304335955</v>
+        <v>4.758488078987995</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07371738281815077</v>
+        <v>0.1795301486302616</v>
       </c>
       <c r="K21">
-        <v>2.315025349722418</v>
+        <v>1.76030341335138</v>
       </c>
       <c r="L21">
-        <v>0.1722436282391726</v>
+        <v>0.2754159230585174</v>
       </c>
       <c r="M21">
-        <v>0.4431508177549404</v>
+        <v>0.4689373070211005</v>
       </c>
       <c r="N21">
-        <v>2.85154001685936</v>
+        <v>4.931793282100301</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.687124762461281</v>
+        <v>2.32556457349483</v>
       </c>
       <c r="C22">
-        <v>0.2024378967307712</v>
+        <v>0.05897393911813253</v>
       </c>
       <c r="D22">
-        <v>0.001507671208218042</v>
+        <v>0.003038362460181965</v>
       </c>
       <c r="E22">
-        <v>0.02229474690673783</v>
+        <v>0.06591521553868684</v>
       </c>
       <c r="F22">
-        <v>3.347946565328556</v>
+        <v>4.775852926325769</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07331789832896263</v>
+        <v>0.1792147901325443</v>
       </c>
       <c r="K22">
-        <v>2.482652888675915</v>
+        <v>1.79543043764852</v>
       </c>
       <c r="L22">
-        <v>0.1812718828174056</v>
+        <v>0.2765852005556013</v>
       </c>
       <c r="M22">
-        <v>0.4719547199340255</v>
+        <v>0.4742658235654744</v>
       </c>
       <c r="N22">
-        <v>2.856093286216975</v>
+        <v>4.929917750657665</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.594983928139243</v>
+        <v>2.307266345851986</v>
       </c>
       <c r="C23">
-        <v>0.1942856450665857</v>
+        <v>0.0569097358367685</v>
       </c>
       <c r="D23">
-        <v>0.001508193484203169</v>
+        <v>0.003034749983902962</v>
       </c>
       <c r="E23">
-        <v>0.02219789953387252</v>
+        <v>0.06597002821846676</v>
       </c>
       <c r="F23">
-        <v>3.287074065488497</v>
+        <v>4.766461443798335</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07352736083055156</v>
+        <v>0.1793810879014828</v>
       </c>
       <c r="K23">
-        <v>2.392828114849266</v>
+        <v>1.776610302738618</v>
       </c>
       <c r="L23">
-        <v>0.1764301438760825</v>
+        <v>0.2759525651531121</v>
       </c>
       <c r="M23">
-        <v>0.4565159289927649</v>
+        <v>0.4714045617621707</v>
       </c>
       <c r="N23">
-        <v>2.853396001258261</v>
+        <v>4.930846023776837</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.253902247620658</v>
+        <v>2.239914463175751</v>
       </c>
       <c r="C24">
-        <v>0.1640070059382168</v>
+        <v>0.04911695501776592</v>
       </c>
       <c r="D24">
-        <v>0.001515856733314003</v>
+        <v>0.003024733908808308</v>
       </c>
       <c r="E24">
-        <v>0.02186176078973734</v>
+        <v>0.06619904950608468</v>
       </c>
       <c r="F24">
-        <v>3.066406048733739</v>
+        <v>4.733607050475101</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07440167309302304</v>
+        <v>0.1800552433498854</v>
       </c>
       <c r="K24">
-        <v>2.060060977485591</v>
+        <v>1.706917954151891</v>
       </c>
       <c r="L24">
-        <v>0.1585789163534059</v>
+        <v>0.2737451017244581</v>
       </c>
       <c r="M24">
-        <v>0.3994093103207277</v>
+        <v>0.4609490773455747</v>
       </c>
       <c r="N24">
-        <v>2.848837379235917</v>
+        <v>4.935959112476198</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.900149258831647</v>
+        <v>2.171437214005067</v>
       </c>
       <c r="C25">
-        <v>0.1323543538711078</v>
+        <v>0.04076257293232288</v>
       </c>
       <c r="D25">
-        <v>0.00153072290545353</v>
+        <v>0.003021911779153008</v>
       </c>
       <c r="E25">
-        <v>0.02156035056130801</v>
+        <v>0.06649216269002967</v>
       </c>
       <c r="F25">
-        <v>2.84672697337416</v>
+        <v>4.703969869793013</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07550972685496227</v>
+        <v>0.1808775294856844</v>
       </c>
       <c r="K25">
-        <v>1.714325660441432</v>
+        <v>1.635132979706384</v>
       </c>
       <c r="L25">
-        <v>0.140224090984276</v>
+        <v>0.2717685249063564</v>
       </c>
       <c r="M25">
-        <v>0.3402797101120996</v>
+        <v>0.4504873723806995</v>
       </c>
       <c r="N25">
-        <v>2.854762989011746</v>
+        <v>4.944884215423215</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.124600112295553</v>
+        <v>1.649406579919486</v>
       </c>
       <c r="C2">
-        <v>0.03465183341573663</v>
+        <v>0.1096746004995452</v>
       </c>
       <c r="D2">
-        <v>0.003026854328761708</v>
+        <v>0.001543020672372997</v>
       </c>
       <c r="E2">
-        <v>0.06674794700219699</v>
+        <v>0.0213871800127361</v>
       </c>
       <c r="F2">
-        <v>4.687133108435773</v>
+        <v>2.698273437014777</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1815652751018284</v>
+        <v>0.07646042881103909</v>
       </c>
       <c r="K2">
-        <v>1.585180651292916</v>
+        <v>1.468696178293015</v>
       </c>
       <c r="L2">
-        <v>0.2706623424018915</v>
+        <v>0.1273580379468342</v>
       </c>
       <c r="M2">
-        <v>0.4434864055175858</v>
+        <v>0.2984579112004333</v>
       </c>
       <c r="N2">
-        <v>4.954385763929537</v>
+        <v>2.867351976753113</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.095091171269956</v>
+        <v>1.484460763048617</v>
       </c>
       <c r="C3">
-        <v>0.03053409699747078</v>
+        <v>0.09458953894291255</v>
       </c>
       <c r="D3">
-        <v>0.003034667849737716</v>
+        <v>0.001550590678075281</v>
       </c>
       <c r="E3">
-        <v>0.06694640041787991</v>
+        <v>0.02129857069222485</v>
       </c>
       <c r="F3">
-        <v>4.678831105747776</v>
+        <v>2.604865197741873</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1820829666192836</v>
+        <v>0.07718576481475203</v>
       </c>
       <c r="K3">
-        <v>1.553133237958463</v>
+        <v>1.306736191038141</v>
       </c>
       <c r="L3">
-        <v>0.2701311971990705</v>
+        <v>0.1189875045710593</v>
       </c>
       <c r="M3">
-        <v>0.4391798820445487</v>
+        <v>0.2710046438077889</v>
       </c>
       <c r="N3">
-        <v>4.962651873587646</v>
+        <v>2.880533295623579</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.078074266701861</v>
+        <v>1.385320928713156</v>
       </c>
       <c r="C4">
-        <v>0.02801690480386299</v>
+        <v>0.08543682845169087</v>
       </c>
       <c r="D4">
-        <v>0.00304169749619243</v>
+        <v>0.001554458451830776</v>
       </c>
       <c r="E4">
-        <v>0.06708069524931926</v>
+        <v>0.02125786027941423</v>
       </c>
       <c r="F4">
-        <v>4.675267130709813</v>
+        <v>2.550738496194356</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1824263713628049</v>
+        <v>0.07767018017521288</v>
       </c>
       <c r="K4">
-        <v>1.534345845640274</v>
+        <v>1.20919743930321</v>
       </c>
       <c r="L4">
-        <v>0.2699131463232547</v>
+        <v>0.1140035219677458</v>
       </c>
       <c r="M4">
-        <v>0.4367519697315636</v>
+        <v>0.254533574434948</v>
       </c>
       <c r="N4">
-        <v>4.968628249207143</v>
+        <v>2.890777064034026</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.071417062371722</v>
+        <v>1.345414421571377</v>
       </c>
       <c r="C5">
-        <v>0.02699386853315389</v>
+        <v>0.08173034977599514</v>
       </c>
       <c r="D5">
-        <v>0.003045128267902264</v>
+        <v>0.001555789913544992</v>
       </c>
       <c r="E5">
-        <v>0.06713855970862159</v>
+        <v>0.02124464947311466</v>
       </c>
       <c r="F5">
-        <v>4.674200608056225</v>
+        <v>2.529448218769204</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1825727468248264</v>
+        <v>0.07787727743995454</v>
       </c>
       <c r="K5">
-        <v>1.526913707004383</v>
+        <v>1.169885574742324</v>
       </c>
       <c r="L5">
-        <v>0.2698515205998575</v>
+        <v>0.1120093749884532</v>
       </c>
       <c r="M5">
-        <v>0.4358170429632011</v>
+        <v>0.2479110930260617</v>
       </c>
       <c r="N5">
-        <v>4.971290242682272</v>
+        <v>2.89547249903562</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.07032839697186</v>
+        <v>1.338816575043495</v>
       </c>
       <c r="C6">
-        <v>0.02682415803369054</v>
+        <v>0.08111618242611485</v>
       </c>
       <c r="D6">
-        <v>0.003045732282761726</v>
+        <v>0.001555994995675825</v>
       </c>
       <c r="E6">
-        <v>0.06714835786951934</v>
+        <v>0.02124265811065573</v>
       </c>
       <c r="F6">
-        <v>4.67404682231448</v>
+        <v>2.525958050979071</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1825974414142628</v>
+        <v>0.07791224773715477</v>
       </c>
       <c r="K6">
-        <v>1.52569313123567</v>
+        <v>1.16338299322183</v>
       </c>
       <c r="L6">
-        <v>0.2698429340734805</v>
+        <v>0.1116804120171864</v>
       </c>
       <c r="M6">
-        <v>0.4356650909848305</v>
+        <v>0.2468166433988799</v>
       </c>
       <c r="N6">
-        <v>4.971745949734725</v>
+        <v>2.896283089362868</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.077983362062525</v>
+        <v>1.384780792030682</v>
       </c>
       <c r="C7">
-        <v>0.02800309675703261</v>
+        <v>0.08538675252158612</v>
       </c>
       <c r="D7">
-        <v>0.003041741466232928</v>
+        <v>0.001554477455964154</v>
       </c>
       <c r="E7">
-        <v>0.06708146291069461</v>
+        <v>0.02125766851442901</v>
       </c>
       <c r="F7">
-        <v>4.675251184742024</v>
+        <v>2.550448320036693</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1824283193602394</v>
+        <v>0.07767293407157716</v>
       </c>
       <c r="K7">
-        <v>1.534244706596382</v>
+        <v>1.208665555497845</v>
       </c>
       <c r="L7">
-        <v>0.269912204882587</v>
+        <v>0.1139764818013091</v>
       </c>
       <c r="M7">
-        <v>0.436739140347747</v>
+        <v>0.2544439077800646</v>
       </c>
       <c r="N7">
-        <v>4.96866323239631</v>
+        <v>2.890838303812515</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.114196927825901</v>
+        <v>1.592062341327335</v>
       </c>
       <c r="C8">
-        <v>0.03322969673264708</v>
+        <v>0.1044478868035839</v>
       </c>
       <c r="D8">
-        <v>0.003029088013441594</v>
+        <v>0.001545760322605005</v>
       </c>
       <c r="E8">
-        <v>0.066813796540802</v>
+        <v>0.02135374409047586</v>
       </c>
       <c r="F8">
-        <v>4.683952420569895</v>
+        <v>2.665368913794154</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1817384820798758</v>
+        <v>0.07670233944073068</v>
       </c>
       <c r="K8">
-        <v>1.573946068750018</v>
+        <v>1.412430011425386</v>
       </c>
       <c r="L8">
-        <v>0.2704568051335769</v>
+        <v>0.1244381887102719</v>
       </c>
       <c r="M8">
-        <v>0.4419566626578018</v>
+        <v>0.288907502323589</v>
       </c>
       <c r="N8">
-        <v>4.957048935011912</v>
+        <v>2.871438289775682</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.193947096612362</v>
+        <v>2.017647178230277</v>
       </c>
       <c r="C9">
-        <v>0.04357022541930178</v>
+        <v>0.1429043299556412</v>
       </c>
       <c r="D9">
-        <v>0.003021782675126872</v>
+        <v>0.001525254487298788</v>
       </c>
       <c r="E9">
-        <v>0.06638724160044251</v>
+        <v>0.02165406794558056</v>
       </c>
       <c r="F9">
-        <v>4.713178617154426</v>
+        <v>2.918505265630984</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1805877909151974</v>
+        <v>0.07511508993585281</v>
       </c>
       <c r="K9">
-        <v>1.658862247266512</v>
+        <v>1.82924738703278</v>
       </c>
       <c r="L9">
-        <v>0.2723801896238527</v>
+        <v>0.1462982921679057</v>
       </c>
       <c r="M9">
-        <v>0.4539023922264889</v>
+        <v>0.3599055749931281</v>
       </c>
       <c r="N9">
-        <v>4.941422483043809</v>
+        <v>2.851420345105467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.257866694958523</v>
+        <v>2.345240785985993</v>
       </c>
       <c r="C10">
-        <v>0.0512278868410192</v>
+        <v>0.1721337147237847</v>
       </c>
       <c r="D10">
-        <v>0.003026831374881134</v>
+        <v>0.001513015753908498</v>
       </c>
       <c r="E10">
-        <v>0.0661332772248846</v>
+        <v>0.02194798465302839</v>
       </c>
       <c r="F10">
-        <v>4.742067719299726</v>
+        <v>3.124730063367366</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1798648009064632</v>
+        <v>0.07415102133302121</v>
       </c>
       <c r="K10">
-        <v>1.725566787454426</v>
+        <v>2.149218884481257</v>
       </c>
       <c r="L10">
-        <v>0.2743124820923484</v>
+        <v>0.1633468808654612</v>
       </c>
       <c r="M10">
-        <v>0.463722706681736</v>
+        <v>0.4146943030166526</v>
       </c>
       <c r="N10">
-        <v>4.934302829133259</v>
+        <v>2.84916511089169</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.288103256788702</v>
+        <v>2.498317169770019</v>
       </c>
       <c r="C11">
-        <v>0.05472578712610243</v>
+        <v>0.1857219727412911</v>
       </c>
       <c r="D11">
-        <v>0.003031338556683139</v>
+        <v>0.001509502432477383</v>
       </c>
       <c r="E11">
-        <v>0.06603053666038505</v>
+        <v>0.02209887395374022</v>
       </c>
       <c r="F11">
-        <v>4.75682157244708</v>
+        <v>3.223761536271809</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1795623159598598</v>
+        <v>0.07375865535561665</v>
       </c>
       <c r="K11">
-        <v>1.756852895071546</v>
+        <v>2.29856244020732</v>
       </c>
       <c r="L11">
-        <v>0.2753038214119385</v>
+        <v>0.1713586856995732</v>
       </c>
       <c r="M11">
-        <v>0.4684167409202331</v>
+        <v>0.4403237292581395</v>
       </c>
       <c r="N11">
-        <v>4.932011715581297</v>
+        <v>2.851206322434109</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.299719653436853</v>
+        <v>2.556940082129302</v>
       </c>
       <c r="C12">
-        <v>0.05605249330537276</v>
+        <v>0.1909167858636351</v>
       </c>
       <c r="D12">
-        <v>0.00303335903619395</v>
+        <v>0.001508618927577032</v>
       </c>
       <c r="E12">
-        <v>0.06599346164794451</v>
+        <v>0.0221586014591999</v>
       </c>
       <c r="F12">
-        <v>4.762640239423661</v>
+        <v>3.262088236959073</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1794515574381457</v>
+        <v>0.07361693796075386</v>
       </c>
       <c r="K12">
-        <v>1.768835643942452</v>
+        <v>2.355732934327051</v>
       </c>
       <c r="L12">
-        <v>0.2756953232585815</v>
+        <v>0.1744332035813301</v>
       </c>
       <c r="M12">
-        <v>0.4702268103815115</v>
+        <v>0.4501427496871955</v>
       </c>
       <c r="N12">
-        <v>4.93128045146716</v>
+        <v>2.852454248232846</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.297210454450521</v>
+        <v>2.544284156378922</v>
       </c>
       <c r="C13">
-        <v>0.05576666785709961</v>
+        <v>0.1897956758286483</v>
       </c>
       <c r="D13">
-        <v>0.003032910002437106</v>
+        <v>0.001508786608063417</v>
       </c>
       <c r="E13">
-        <v>0.06600136513220978</v>
+        <v>0.02214562091142813</v>
       </c>
       <c r="F13">
-        <v>4.761376781971052</v>
+        <v>3.25379589877258</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1794752430650881</v>
+        <v>0.07364715035241076</v>
       </c>
       <c r="K13">
-        <v>1.766248924478106</v>
+        <v>2.343391552996991</v>
       </c>
       <c r="L13">
-        <v>0.2756102909237441</v>
+        <v>0.1737691806727497</v>
       </c>
       <c r="M13">
-        <v>0.4698355332598325</v>
+        <v>0.4480227830035588</v>
       </c>
       <c r="N13">
-        <v>4.931431877923501</v>
+        <v>2.852163783738462</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.289055609761874</v>
+        <v>2.503126514022085</v>
       </c>
       <c r="C14">
-        <v>0.05483489307628986</v>
+        <v>0.1861483219029054</v>
       </c>
       <c r="D14">
-        <v>0.00303149851923834</v>
+        <v>0.001509419818780167</v>
       </c>
       <c r="E14">
-        <v>0.0660274498367901</v>
+        <v>0.02210373516339015</v>
       </c>
       <c r="F14">
-        <v>4.75729563460402</v>
+        <v>3.226897692893971</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1795531279776093</v>
+        <v>0.0737468572922797</v>
       </c>
       <c r="K14">
-        <v>1.757836010170337</v>
+        <v>2.303253076286722</v>
       </c>
       <c r="L14">
-        <v>0.2753357080559695</v>
+        <v>0.1716107911726539</v>
       </c>
       <c r="M14">
-        <v>0.4685650046134384</v>
+        <v>0.4411291927044871</v>
       </c>
       <c r="N14">
-        <v>4.931948821413158</v>
+        <v>2.851299264461261</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.28408220421602</v>
+        <v>2.478004030910256</v>
       </c>
       <c r="C15">
-        <v>0.05426443287086613</v>
+        <v>0.1839208535769359</v>
       </c>
       <c r="D15">
-        <v>0.00303067467873408</v>
+        <v>0.001509870864778051</v>
       </c>
       <c r="E15">
-        <v>0.06604366562147757</v>
+        <v>0.02207841981280101</v>
       </c>
       <c r="F15">
-        <v>4.754825985474525</v>
+        <v>3.210531644824869</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1796013274462176</v>
+        <v>0.07380883136704242</v>
       </c>
       <c r="K15">
-        <v>1.752700485839966</v>
+        <v>2.278749777889061</v>
       </c>
       <c r="L15">
-        <v>0.275169613762742</v>
+        <v>0.1702941232423711</v>
       </c>
       <c r="M15">
-        <v>0.4677910050555667</v>
+        <v>0.4369218615772326</v>
       </c>
       <c r="N15">
-        <v>4.932283220370778</v>
+        <v>2.850832641178897</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.255913971357757</v>
+        <v>2.335324548996766</v>
       </c>
       <c r="C16">
-        <v>0.05099958535633675</v>
+        <v>0.171252165612259</v>
       </c>
       <c r="D16">
-        <v>0.003026580941432933</v>
+        <v>0.001513299009467062</v>
       </c>
       <c r="E16">
-        <v>0.06614024818824848</v>
+        <v>0.0219384792738806</v>
       </c>
       <c r="F16">
-        <v>4.741135949515154</v>
+        <v>3.118369398867671</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1798850994131822</v>
+        <v>0.07417761126429134</v>
       </c>
       <c r="K16">
-        <v>1.723541114289617</v>
+        <v>2.139541194313381</v>
       </c>
       <c r="L16">
-        <v>0.2742499518342285</v>
+        <v>0.1628287619038744</v>
       </c>
       <c r="M16">
-        <v>0.4634204974346048</v>
+        <v>0.4130345798059452</v>
       </c>
       <c r="N16">
-        <v>4.934471632974208</v>
+        <v>2.84909625328612</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.238930412143645</v>
+        <v>2.248883305538072</v>
       </c>
       <c r="C17">
-        <v>0.04900043417235622</v>
+        <v>0.1635599954102105</v>
       </c>
       <c r="D17">
-        <v>0.003024632721278842</v>
+        <v>0.001516027336048609</v>
       </c>
       <c r="E17">
-        <v>0.06620276802613567</v>
+        <v>0.0218571117032802</v>
       </c>
       <c r="F17">
-        <v>4.733150362289336</v>
+        <v>3.063218717301339</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1800659396665125</v>
+        <v>0.07441582726297113</v>
       </c>
       <c r="K17">
-        <v>1.705893975698473</v>
+        <v>2.055160737115699</v>
       </c>
       <c r="L17">
-        <v>0.2737145038056497</v>
+        <v>0.1583172200672749</v>
       </c>
       <c r="M17">
-        <v>0.460797357428973</v>
+        <v>0.3985696019815492</v>
       </c>
       <c r="N17">
-        <v>4.936056910807224</v>
+        <v>2.848839677170446</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.229271042079461</v>
+        <v>2.19954122006942</v>
       </c>
       <c r="C18">
-        <v>0.04785192642617631</v>
+        <v>0.1591626364736385</v>
       </c>
       <c r="D18">
-        <v>0.003023720459800927</v>
+        <v>0.001517779305122424</v>
       </c>
       <c r="E18">
-        <v>0.0662399320552316</v>
+        <v>0.0218119210053489</v>
       </c>
       <c r="F18">
-        <v>4.728709003989522</v>
+        <v>3.031983805107302</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.180172440401849</v>
+        <v>0.07455717634507586</v>
       </c>
       <c r="K18">
-        <v>1.695832465619532</v>
+        <v>2.006979014029127</v>
       </c>
       <c r="L18">
-        <v>0.2734171042082352</v>
+        <v>0.1557461806896612</v>
       </c>
       <c r="M18">
-        <v>0.4593099406316696</v>
+        <v>0.3903153602431075</v>
       </c>
       <c r="N18">
-        <v>4.93705791432167</v>
+        <v>2.848978571734719</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.226019294536115</v>
+        <v>2.182897400005515</v>
       </c>
       <c r="C19">
-        <v>0.04746329174365371</v>
+        <v>0.1576781889110919</v>
       </c>
       <c r="D19">
-        <v>0.003023447488236464</v>
+        <v>0.00151839970506451</v>
       </c>
       <c r="E19">
-        <v>0.06625272225026269</v>
+        <v>0.02179689330623358</v>
       </c>
       <c r="F19">
-        <v>4.727231301377316</v>
+        <v>3.02148955056461</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1802089270757516</v>
+        <v>0.07460577263513279</v>
       </c>
       <c r="K19">
-        <v>1.692441040157263</v>
+        <v>1.990723809358514</v>
       </c>
       <c r="L19">
-        <v>0.2733182277684705</v>
+        <v>0.1548796634594254</v>
       </c>
       <c r="M19">
-        <v>0.458809994619827</v>
+        <v>0.3875315344081613</v>
       </c>
       <c r="N19">
-        <v>4.937412154290755</v>
+        <v>2.849073821980909</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.24072704875482</v>
+        <v>2.258045633836446</v>
       </c>
       <c r="C20">
-        <v>0.04921310697359615</v>
+        <v>0.1643759979084791</v>
       </c>
       <c r="D20">
-        <v>0.003024818584154154</v>
+        <v>0.00151571698281483</v>
       </c>
       <c r="E20">
-        <v>0.06619598810656768</v>
+        <v>0.02186560600115328</v>
       </c>
       <c r="F20">
-        <v>4.733984737928139</v>
+        <v>3.069038749893664</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1800464316817418</v>
+        <v>0.07439001873002127</v>
       </c>
       <c r="K20">
-        <v>1.707763368498576</v>
+        <v>2.06410627823621</v>
       </c>
       <c r="L20">
-        <v>0.2737704089546114</v>
+        <v>0.1587949837660716</v>
       </c>
       <c r="M20">
-        <v>0.4610743865949303</v>
+        <v>0.4001025461879593</v>
       </c>
       <c r="N20">
-        <v>4.935878923628636</v>
+        <v>2.848837106677124</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.291446369232062</v>
+        <v>2.515197080440998</v>
       </c>
       <c r="C21">
-        <v>0.05510851972036335</v>
+        <v>0.187218240019547</v>
       </c>
       <c r="D21">
-        <v>0.003031904624647197</v>
+        <v>0.001509220350071061</v>
       </c>
       <c r="E21">
-        <v>0.06601973851139586</v>
+        <v>0.02211596675526017</v>
       </c>
       <c r="F21">
-        <v>4.758488078987995</v>
+        <v>3.23477530433604</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1795301486302616</v>
+        <v>0.07371738281810636</v>
       </c>
       <c r="K21">
-        <v>1.76030341335138</v>
+        <v>2.31502534972239</v>
       </c>
       <c r="L21">
-        <v>0.2754159230585174</v>
+        <v>0.1722436282391868</v>
       </c>
       <c r="M21">
-        <v>0.4689373070211005</v>
+        <v>0.4431508177549333</v>
       </c>
       <c r="N21">
-        <v>4.931793282100301</v>
+        <v>2.851540016859389</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.32556457349483</v>
+        <v>2.687124762461167</v>
       </c>
       <c r="C22">
-        <v>0.05897393911813253</v>
+        <v>0.2024378967307854</v>
       </c>
       <c r="D22">
-        <v>0.003038362460181965</v>
+        <v>0.001507671208329953</v>
       </c>
       <c r="E22">
-        <v>0.06591521553868684</v>
+        <v>0.02229474690676359</v>
       </c>
       <c r="F22">
-        <v>4.775852926325769</v>
+        <v>3.347946565328584</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1792147901325443</v>
+        <v>0.07331789832889157</v>
       </c>
       <c r="K22">
-        <v>1.79543043764852</v>
+        <v>2.482652888675858</v>
       </c>
       <c r="L22">
-        <v>0.2765852005556013</v>
+        <v>0.1812718828174553</v>
       </c>
       <c r="M22">
-        <v>0.4742658235654744</v>
+        <v>0.4719547199340113</v>
       </c>
       <c r="N22">
-        <v>4.929917750657665</v>
+        <v>2.856093286217032</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.307266345851986</v>
+        <v>2.594983928139072</v>
       </c>
       <c r="C23">
-        <v>0.0569097358367685</v>
+        <v>0.1942856450663442</v>
       </c>
       <c r="D23">
-        <v>0.003034749983902962</v>
+        <v>0.001508193484448306</v>
       </c>
       <c r="E23">
-        <v>0.06597002821846676</v>
+        <v>0.02219789953390006</v>
       </c>
       <c r="F23">
-        <v>4.766461443798335</v>
+        <v>3.287074065488497</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1793810879014828</v>
+        <v>0.07352736083061195</v>
       </c>
       <c r="K23">
-        <v>1.776610302738618</v>
+        <v>2.392828114849436</v>
       </c>
       <c r="L23">
-        <v>0.2759525651531121</v>
+        <v>0.1764301438761109</v>
       </c>
       <c r="M23">
-        <v>0.4714045617621707</v>
+        <v>0.456515928992772</v>
       </c>
       <c r="N23">
-        <v>4.930846023776837</v>
+        <v>2.853396001258261</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.239914463175751</v>
+        <v>2.253902247620772</v>
       </c>
       <c r="C24">
-        <v>0.04911695501776592</v>
+        <v>0.1640070059377905</v>
       </c>
       <c r="D24">
-        <v>0.003024733908808308</v>
+        <v>0.001515856733298016</v>
       </c>
       <c r="E24">
-        <v>0.06619904950608468</v>
+        <v>0.02186176078970536</v>
       </c>
       <c r="F24">
-        <v>4.733607050475101</v>
+        <v>3.066406048733754</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1800552433498854</v>
+        <v>0.07440167309311363</v>
       </c>
       <c r="K24">
-        <v>1.706917954151891</v>
+        <v>2.060060977485563</v>
       </c>
       <c r="L24">
-        <v>0.2737451017244581</v>
+        <v>0.1585789163533207</v>
       </c>
       <c r="M24">
-        <v>0.4609490773455747</v>
+        <v>0.3994093103207348</v>
       </c>
       <c r="N24">
-        <v>4.935959112476198</v>
+        <v>2.848837379235945</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.171437214005067</v>
+        <v>1.90014925883176</v>
       </c>
       <c r="C25">
-        <v>0.04076257293232288</v>
+        <v>0.1323543538713068</v>
       </c>
       <c r="D25">
-        <v>0.003021911779153008</v>
+        <v>0.001530722905457083</v>
       </c>
       <c r="E25">
-        <v>0.06649216269002967</v>
+        <v>0.02156035056132488</v>
       </c>
       <c r="F25">
-        <v>4.703969869793013</v>
+        <v>2.84672697337416</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1808775294856844</v>
+        <v>0.07550972685497293</v>
       </c>
       <c r="K25">
-        <v>1.635132979706384</v>
+        <v>1.71432566044146</v>
       </c>
       <c r="L25">
-        <v>0.2717685249063564</v>
+        <v>0.1402240909841694</v>
       </c>
       <c r="M25">
-        <v>0.4504873723806995</v>
+        <v>0.3402797101121138</v>
       </c>
       <c r="N25">
-        <v>4.944884215423215</v>
+        <v>2.854762989011675</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649406579919486</v>
+        <v>0.9904706750835146</v>
       </c>
       <c r="C2">
-        <v>0.1096746004995452</v>
+        <v>0.1434914344115015</v>
       </c>
       <c r="D2">
-        <v>0.001543020672372997</v>
+        <v>0.1102482638991802</v>
       </c>
       <c r="E2">
-        <v>0.0213871800127361</v>
+        <v>0.0375812456482354</v>
       </c>
       <c r="F2">
-        <v>2.698273437014777</v>
+        <v>2.621639165174884</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.01374766798268379</v>
+      </c>
+      <c r="I2">
+        <v>0.02375074945729727</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.07646042881103909</v>
-      </c>
       <c r="K2">
-        <v>1.468696178293015</v>
+        <v>1.937218048137353</v>
       </c>
       <c r="L2">
-        <v>0.1273580379468342</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2984579112004333</v>
+        <v>1.035101097425013</v>
       </c>
       <c r="N2">
-        <v>2.867351976753113</v>
+        <v>0.279497879839667</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.484460763048617</v>
+        <v>0.8625538839221463</v>
       </c>
       <c r="C3">
-        <v>0.09458953894291255</v>
+        <v>0.122919070862352</v>
       </c>
       <c r="D3">
-        <v>0.001550590678075281</v>
+        <v>0.10620221001464</v>
       </c>
       <c r="E3">
-        <v>0.02129857069222485</v>
+        <v>0.03239083926550634</v>
       </c>
       <c r="F3">
-        <v>2.604865197741873</v>
+        <v>2.394746313319459</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01809088219207766</v>
+      </c>
+      <c r="I3">
+        <v>0.02995015063141881</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.07718576481475203</v>
-      </c>
       <c r="K3">
-        <v>1.306736191038141</v>
+        <v>1.787408118215211</v>
       </c>
       <c r="L3">
-        <v>0.1189875045710593</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2710046438077889</v>
+        <v>0.8991133590634206</v>
       </c>
       <c r="N3">
-        <v>2.880533295623579</v>
+        <v>0.2432513159079406</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.385320928713156</v>
+        <v>0.7841702080696393</v>
       </c>
       <c r="C4">
-        <v>0.08543682845169087</v>
+        <v>0.1106356168794917</v>
       </c>
       <c r="D4">
-        <v>0.001554458451830776</v>
+        <v>0.1035817774090226</v>
       </c>
       <c r="E4">
-        <v>0.02125786027941423</v>
+        <v>0.02923629126194349</v>
       </c>
       <c r="F4">
-        <v>2.550738496194356</v>
+        <v>2.254935647116227</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.02115473450242988</v>
+      </c>
+      <c r="I4">
+        <v>0.03428903018611695</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.07767018017521288</v>
-      </c>
       <c r="K4">
-        <v>1.20919743930321</v>
+        <v>1.694533487264266</v>
       </c>
       <c r="L4">
-        <v>0.1140035219677458</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.254533574434948</v>
+        <v>0.8161733661130484</v>
       </c>
       <c r="N4">
-        <v>2.890777064034026</v>
+        <v>0.2210794822408673</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.345414421571377</v>
+        <v>0.7520579036015533</v>
       </c>
       <c r="C5">
-        <v>0.08173034977599514</v>
+        <v>0.1059447630685071</v>
       </c>
       <c r="D5">
-        <v>0.001555789913544992</v>
+        <v>0.1022896161234463</v>
       </c>
       <c r="E5">
-        <v>0.02124464947311466</v>
+        <v>0.02792280621979693</v>
       </c>
       <c r="F5">
-        <v>2.529448218769204</v>
+        <v>2.193562789122666</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.02251089341322077</v>
+      </c>
+      <c r="I5">
+        <v>0.03629693201584772</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.07787727743995454</v>
-      </c>
       <c r="K5">
-        <v>1.169885574742324</v>
+        <v>1.652844103687841</v>
       </c>
       <c r="L5">
-        <v>0.1120093749884532</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2479110930260617</v>
+        <v>0.7827302958955897</v>
       </c>
       <c r="N5">
-        <v>2.89547249903562</v>
+        <v>0.2121020873143635</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.338816575043495</v>
+        <v>0.7464837833188369</v>
       </c>
       <c r="C6">
-        <v>0.08111618242611485</v>
+        <v>0.1054596950493902</v>
       </c>
       <c r="D6">
-        <v>0.001555994995675825</v>
+        <v>0.1018416190767297</v>
       </c>
       <c r="E6">
-        <v>0.02124265811065573</v>
+        <v>0.02766285356572418</v>
       </c>
       <c r="F6">
-        <v>2.525958050979071</v>
+        <v>2.178165603009433</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.02275633131931465</v>
+      </c>
+      <c r="I6">
+        <v>0.03678122213899382</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.07791224773715477</v>
-      </c>
       <c r="K6">
-        <v>1.16338299322183</v>
+        <v>1.64149966109062</v>
       </c>
       <c r="L6">
-        <v>0.1116804120171864</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2468166433988799</v>
+        <v>0.7774706260409516</v>
       </c>
       <c r="N6">
-        <v>2.896283089362868</v>
+        <v>0.2106628662643431</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.384780792030682</v>
+        <v>0.7830669495852476</v>
       </c>
       <c r="C7">
-        <v>0.08538675252158612</v>
+        <v>0.1113627281892917</v>
       </c>
       <c r="D7">
-        <v>0.001554477455964154</v>
+        <v>0.1029312447385067</v>
       </c>
       <c r="E7">
-        <v>0.02125766851442901</v>
+        <v>0.02910246906444769</v>
       </c>
       <c r="F7">
-        <v>2.550448320036693</v>
+        <v>2.239886103410996</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.02121050153571868</v>
+      </c>
+      <c r="I7">
+        <v>0.03468623759771194</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.07767293407157716</v>
-      </c>
       <c r="K7">
-        <v>1.208665555497845</v>
+        <v>1.6819077449681</v>
       </c>
       <c r="L7">
-        <v>0.1139764818013091</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2544439077800646</v>
+        <v>0.8165026941719589</v>
       </c>
       <c r="N7">
-        <v>2.890838303812515</v>
+        <v>0.2210964812486367</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.592062341327335</v>
+        <v>0.945413349996528</v>
       </c>
       <c r="C8">
-        <v>0.1044478868035839</v>
+        <v>0.1373712090682062</v>
       </c>
       <c r="D8">
-        <v>0.001545760322605005</v>
+        <v>0.1080433482461132</v>
       </c>
       <c r="E8">
-        <v>0.02135374409047586</v>
+        <v>0.03562663493143425</v>
       </c>
       <c r="F8">
-        <v>2.665368913794154</v>
+        <v>2.524582210462128</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0152012915933003</v>
+      </c>
+      <c r="I8">
+        <v>0.02621150996442712</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.07670233944073068</v>
-      </c>
       <c r="K8">
-        <v>1.412430011425386</v>
+        <v>1.869697069003237</v>
       </c>
       <c r="L8">
-        <v>0.1244381887102719</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.288907502323589</v>
+        <v>0.9891079234716074</v>
       </c>
       <c r="N8">
-        <v>2.871438289775682</v>
+        <v>0.2671621936251682</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.017647178230277</v>
+        <v>1.266829909466111</v>
       </c>
       <c r="C9">
-        <v>0.1429043299556412</v>
+        <v>0.19012876095438</v>
       </c>
       <c r="D9">
-        <v>0.001525254487298788</v>
+        <v>0.1181178938642233</v>
       </c>
       <c r="E9">
-        <v>0.02165406794558056</v>
+        <v>0.04896986021677918</v>
       </c>
       <c r="F9">
-        <v>2.918505265630984</v>
+        <v>3.105599572032418</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.006716211408283157</v>
+      </c>
+      <c r="I9">
+        <v>0.01352589956149419</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.07511508993585281</v>
-      </c>
       <c r="K9">
-        <v>1.82924738703278</v>
+        <v>2.253124330192691</v>
       </c>
       <c r="L9">
-        <v>0.1462982921679057</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3599055749931281</v>
+        <v>1.331534149339802</v>
       </c>
       <c r="N9">
-        <v>2.851420345105467</v>
+        <v>0.358134390002391</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.345240785985993</v>
+        <v>1.502321438882035</v>
       </c>
       <c r="C10">
-        <v>0.1721337147237847</v>
+        <v>0.2340119792294928</v>
       </c>
       <c r="D10">
-        <v>0.001513015753908498</v>
+        <v>0.1215225053974507</v>
       </c>
       <c r="E10">
-        <v>0.02194798465302839</v>
+        <v>0.05533008336820444</v>
       </c>
       <c r="F10">
-        <v>3.124730063367366</v>
+        <v>3.454289531180791</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.003184743377179444</v>
+      </c>
+      <c r="I10">
+        <v>0.007635484594742614</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.07415102133302121</v>
-      </c>
       <c r="K10">
-        <v>2.149218884481257</v>
+        <v>2.467139089676195</v>
       </c>
       <c r="L10">
-        <v>0.1633468808654612</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4146943030166526</v>
+        <v>1.589895016931592</v>
       </c>
       <c r="N10">
-        <v>2.84916511089169</v>
+        <v>0.4072078255415192</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.498317169770019</v>
+        <v>1.588904903516607</v>
       </c>
       <c r="C11">
-        <v>0.1857219727412911</v>
+        <v>0.2760269808126026</v>
       </c>
       <c r="D11">
-        <v>0.001509502432477383</v>
+        <v>0.1010375682037594</v>
       </c>
       <c r="E11">
-        <v>0.02209887395374022</v>
+        <v>0.03198831758146348</v>
       </c>
       <c r="F11">
-        <v>3.223761536271809</v>
+        <v>2.998662473585938</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02174436463249663</v>
+      </c>
+      <c r="I11">
+        <v>0.007232497430451623</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.07375865535561665</v>
-      </c>
       <c r="K11">
-        <v>2.29856244020732</v>
+        <v>2.064221033424076</v>
       </c>
       <c r="L11">
-        <v>0.1713586856995732</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4403237292581395</v>
+        <v>1.726050669392947</v>
       </c>
       <c r="N11">
-        <v>2.851206322434109</v>
+        <v>0.2823566412736938</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.556940082129302</v>
+        <v>1.612880327787735</v>
       </c>
       <c r="C12">
-        <v>0.1909167858636351</v>
+        <v>0.30226320196698</v>
       </c>
       <c r="D12">
-        <v>0.001508618927577032</v>
+        <v>0.09051396437124026</v>
       </c>
       <c r="E12">
-        <v>0.0221586014591999</v>
+        <v>0.01920636482448845</v>
       </c>
       <c r="F12">
-        <v>3.262088236959073</v>
+        <v>2.591153828143689</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.06074958223150873</v>
+      </c>
+      <c r="I12">
+        <v>0.007273831380030238</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.07361693796075386</v>
-      </c>
       <c r="K12">
-        <v>2.355732934327051</v>
+        <v>1.730274473150743</v>
       </c>
       <c r="L12">
-        <v>0.1744332035813301</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4501427496871955</v>
+        <v>1.785771252502911</v>
       </c>
       <c r="N12">
-        <v>2.852454248232846</v>
+        <v>0.1865112867218244</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.544284156378922</v>
+        <v>1.588707255907536</v>
       </c>
       <c r="C13">
-        <v>0.1897956758286483</v>
+        <v>0.3187440017611607</v>
       </c>
       <c r="D13">
-        <v>0.001508786608063417</v>
+        <v>0.08593268424315958</v>
       </c>
       <c r="E13">
-        <v>0.02214562091142813</v>
+        <v>0.0135847101759177</v>
       </c>
       <c r="F13">
-        <v>3.25379589877258</v>
+        <v>2.176061907288442</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1172041202451766</v>
+      </c>
+      <c r="I13">
+        <v>0.008114926913910914</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.07364715035241076</v>
-      </c>
       <c r="K13">
-        <v>2.343391552996991</v>
+        <v>1.412212879794936</v>
       </c>
       <c r="L13">
-        <v>0.1737691806727497</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4480227830035588</v>
+        <v>1.790661358179875</v>
       </c>
       <c r="N13">
-        <v>2.852163783738462</v>
+        <v>0.1082292657435673</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.503126514022085</v>
+        <v>1.549911138982992</v>
       </c>
       <c r="C14">
-        <v>0.1861483219029054</v>
+        <v>0.3262448463576675</v>
       </c>
       <c r="D14">
-        <v>0.001509419818780167</v>
+        <v>0.08618742454099859</v>
       </c>
       <c r="E14">
-        <v>0.02210373516339015</v>
+        <v>0.01397447676979047</v>
       </c>
       <c r="F14">
-        <v>3.226897692893971</v>
+        <v>1.884969922080472</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1672378424923551</v>
+      </c>
+      <c r="I14">
+        <v>0.009220440216821224</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.0737468572922797</v>
-      </c>
       <c r="K14">
-        <v>2.303253076286722</v>
+        <v>1.200205369804749</v>
       </c>
       <c r="L14">
-        <v>0.1716107911726539</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4411291927044871</v>
+        <v>1.769610033635104</v>
       </c>
       <c r="N14">
-        <v>2.851299264461261</v>
+        <v>0.06461875669734951</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.478004030910256</v>
+        <v>1.530010584549956</v>
       </c>
       <c r="C15">
-        <v>0.1839208535769359</v>
+        <v>0.3261748987974613</v>
       </c>
       <c r="D15">
-        <v>0.001509870864778051</v>
+        <v>0.08670221452356941</v>
       </c>
       <c r="E15">
-        <v>0.02207841981280101</v>
+        <v>0.01455031672080942</v>
       </c>
       <c r="F15">
-        <v>3.210531644824869</v>
+        <v>1.805565062932274</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.180060685148888</v>
+      </c>
+      <c r="I15">
+        <v>0.009849872419943395</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.07380883136704242</v>
-      </c>
       <c r="K15">
-        <v>2.278749777889061</v>
+        <v>1.145335396910639</v>
       </c>
       <c r="L15">
-        <v>0.1702941232423711</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4369218615772326</v>
+        <v>1.753005906797711</v>
       </c>
       <c r="N15">
-        <v>2.850832641178897</v>
+        <v>0.0552758176487842</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.335324548996766</v>
+        <v>1.433372245293185</v>
       </c>
       <c r="C16">
-        <v>0.171252165612259</v>
+        <v>0.3034780312982264</v>
       </c>
       <c r="D16">
-        <v>0.001513299009467062</v>
+        <v>0.08606498214343006</v>
       </c>
       <c r="E16">
-        <v>0.0219384792738806</v>
+        <v>0.01323769297174682</v>
       </c>
       <c r="F16">
-        <v>3.118369398867671</v>
+        <v>1.742641931944419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.168890595427456</v>
+      </c>
+      <c r="I16">
+        <v>0.01232842132811474</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.07417761126429134</v>
-      </c>
       <c r="K16">
-        <v>2.139541194313381</v>
+        <v>1.120360731028647</v>
       </c>
       <c r="L16">
-        <v>0.1628287619038744</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4130345798059452</v>
+        <v>1.640191607170664</v>
       </c>
       <c r="N16">
-        <v>2.84909625328612</v>
+        <v>0.05317485135369537</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.248883305538072</v>
+        <v>1.379961477919323</v>
       </c>
       <c r="C17">
-        <v>0.1635599954102105</v>
+        <v>0.2822033145952503</v>
       </c>
       <c r="D17">
-        <v>0.001516027336048609</v>
+        <v>0.08482647573845981</v>
       </c>
       <c r="E17">
-        <v>0.0218571117032802</v>
+        <v>0.01123837183137866</v>
       </c>
       <c r="F17">
-        <v>3.063218717301339</v>
+        <v>1.844140229342244</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1319750220854274</v>
+      </c>
+      <c r="I17">
+        <v>0.01370836253348617</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.07441582726297113</v>
-      </c>
       <c r="K17">
-        <v>2.055160737115699</v>
+        <v>1.208916570954287</v>
       </c>
       <c r="L17">
-        <v>0.1583172200672749</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3985696019815492</v>
+        <v>1.565183779753397</v>
       </c>
       <c r="N17">
-        <v>2.848839677170446</v>
+        <v>0.07239447996006021</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.19954122006942</v>
+        <v>1.357842930230731</v>
       </c>
       <c r="C18">
-        <v>0.1591626364736385</v>
+        <v>0.2593490784246342</v>
       </c>
       <c r="D18">
-        <v>0.001517779305122424</v>
+        <v>0.08610153230912676</v>
       </c>
       <c r="E18">
-        <v>0.0218119210053489</v>
+        <v>0.01233443572085147</v>
       </c>
       <c r="F18">
-        <v>3.031983805107302</v>
+        <v>2.122980437977319</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07919134559156049</v>
+      </c>
+      <c r="I18">
+        <v>0.01369445276352543</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.07455717634507586</v>
-      </c>
       <c r="K18">
-        <v>2.006979014029127</v>
+        <v>1.429207349039785</v>
       </c>
       <c r="L18">
-        <v>0.1557461806896612</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3903153602431075</v>
+        <v>1.513332683862728</v>
       </c>
       <c r="N18">
-        <v>2.848978571734719</v>
+        <v>0.1221818432708446</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.182897400005515</v>
+        <v>1.360991221788169</v>
       </c>
       <c r="C19">
-        <v>0.1576781889110919</v>
+        <v>0.2394558709724919</v>
       </c>
       <c r="D19">
-        <v>0.00151839970506451</v>
+        <v>0.09379112760854813</v>
       </c>
       <c r="E19">
-        <v>0.02179689330623358</v>
+        <v>0.02168659261771211</v>
       </c>
       <c r="F19">
-        <v>3.02148955056461</v>
+        <v>2.528595724198809</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03308151504818113</v>
+      </c>
+      <c r="I19">
+        <v>0.01307822078225662</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.07460577263513279</v>
-      </c>
       <c r="K19">
-        <v>1.990723809358514</v>
+        <v>1.749950615815649</v>
       </c>
       <c r="L19">
-        <v>0.1548796634594254</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3875315344081613</v>
+        <v>1.485674143761372</v>
       </c>
       <c r="N19">
-        <v>2.849073821980909</v>
+        <v>0.2086955771017358</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.258045633836446</v>
+        <v>1.437947264347684</v>
       </c>
       <c r="C20">
-        <v>0.1643759979084791</v>
+        <v>0.2248997235496688</v>
       </c>
       <c r="D20">
-        <v>0.00151571698281483</v>
+        <v>0.1186480011479993</v>
       </c>
       <c r="E20">
-        <v>0.02186560600115328</v>
+        <v>0.05309790740912135</v>
       </c>
       <c r="F20">
-        <v>3.069038749893664</v>
+        <v>3.315157045787657</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.003992259740687842</v>
+      </c>
+      <c r="I20">
+        <v>0.009938038387417691</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.07439001873002127</v>
-      </c>
       <c r="K20">
-        <v>2.06410627823621</v>
+        <v>2.370992402931662</v>
       </c>
       <c r="L20">
-        <v>0.1587949837660716</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4001025461879593</v>
+        <v>1.524111301655751</v>
       </c>
       <c r="N20">
-        <v>2.848837106677124</v>
+        <v>0.3939111110501869</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.515197080440998</v>
+        <v>1.623426266888089</v>
       </c>
       <c r="C21">
-        <v>0.187218240019547</v>
+        <v>0.2556733868559604</v>
       </c>
       <c r="D21">
-        <v>0.001509220350071061</v>
+        <v>0.1260852259000274</v>
       </c>
       <c r="E21">
-        <v>0.02211596675526017</v>
+        <v>0.06390788486180909</v>
       </c>
       <c r="F21">
-        <v>3.23477530433604</v>
+        <v>3.701944442094941</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.001539217715588848</v>
+      </c>
+      <c r="I21">
+        <v>0.006030416664272842</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.07371738281810636</v>
-      </c>
       <c r="K21">
-        <v>2.31502534972239</v>
+        <v>2.632457539140717</v>
       </c>
       <c r="L21">
-        <v>0.1722436282391868</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4431508177549333</v>
+        <v>1.720899971940355</v>
       </c>
       <c r="N21">
-        <v>2.851540016859389</v>
+        <v>0.4607408708167782</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.687124762461167</v>
+        <v>1.745151188954708</v>
       </c>
       <c r="C22">
-        <v>0.2024378967307854</v>
+        <v>0.2765326936404051</v>
       </c>
       <c r="D22">
-        <v>0.001507671208329953</v>
+        <v>0.1301292375653489</v>
       </c>
       <c r="E22">
-        <v>0.02229474690676359</v>
+        <v>0.06936094637862666</v>
       </c>
       <c r="F22">
-        <v>3.347946565328584</v>
+        <v>3.938193210954239</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0006300693093588272</v>
+      </c>
+      <c r="I22">
+        <v>0.003898734056358322</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.07331789832889157</v>
-      </c>
       <c r="K22">
-        <v>2.482652888675858</v>
+        <v>2.789448325094384</v>
       </c>
       <c r="L22">
-        <v>0.1812718828174553</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4719547199340113</v>
+        <v>1.850801695803369</v>
       </c>
       <c r="N22">
-        <v>2.856093286217032</v>
+        <v>0.4950053546911306</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.594983928139072</v>
+        <v>1.681008066532172</v>
       </c>
       <c r="C23">
-        <v>0.1942856450663442</v>
+        <v>0.2643827786995274</v>
       </c>
       <c r="D23">
-        <v>0.001508193484448306</v>
+        <v>0.1287200876651902</v>
       </c>
       <c r="E23">
-        <v>0.02219789953390006</v>
+        <v>0.06659190939409854</v>
       </c>
       <c r="F23">
-        <v>3.287074065488497</v>
+        <v>3.829108424651935</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.001055433726439681</v>
+      </c>
+      <c r="I23">
+        <v>0.00461905581557609</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.07352736083061195</v>
-      </c>
       <c r="K23">
-        <v>2.392828114849436</v>
+        <v>2.720144614903333</v>
       </c>
       <c r="L23">
-        <v>0.1764301438761109</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.456515928992772</v>
+        <v>1.780473729442434</v>
       </c>
       <c r="N23">
-        <v>2.853396001258261</v>
+        <v>0.4765332411073047</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.253902247620772</v>
+        <v>1.438022007825737</v>
       </c>
       <c r="C24">
-        <v>0.1640070059377905</v>
+        <v>0.2212124506151127</v>
       </c>
       <c r="D24">
-        <v>0.001515856733298016</v>
+        <v>0.1219913395119434</v>
       </c>
       <c r="E24">
-        <v>0.02186176078970536</v>
+        <v>0.05607015209803734</v>
       </c>
       <c r="F24">
-        <v>3.066406048733754</v>
+        <v>3.390678140950058</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.003736925276665914</v>
+      </c>
+      <c r="I24">
+        <v>0.009284492609475059</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.07440167309311363</v>
-      </c>
       <c r="K24">
-        <v>2.060060977485563</v>
+        <v>2.434678377146327</v>
       </c>
       <c r="L24">
-        <v>0.1585789163533207</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3994093103207348</v>
+        <v>1.518112067107182</v>
       </c>
       <c r="N24">
-        <v>2.848837379235945</v>
+        <v>0.4073634439071583</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.90014925883176</v>
+        <v>1.178307553537735</v>
       </c>
       <c r="C25">
-        <v>0.1323543538713068</v>
+        <v>0.1769018341251467</v>
       </c>
       <c r="D25">
-        <v>0.001530722905457083</v>
+        <v>0.1143725326102327</v>
       </c>
       <c r="E25">
-        <v>0.02156035056132488</v>
+        <v>0.04509140670519507</v>
       </c>
       <c r="F25">
-        <v>2.84672697337416</v>
+        <v>2.922610592854681</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.008663677001348402</v>
+      </c>
+      <c r="I25">
+        <v>0.01701058350928086</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.07550972685497293</v>
-      </c>
       <c r="K25">
-        <v>1.71432566044146</v>
+        <v>2.128014788747535</v>
       </c>
       <c r="L25">
-        <v>0.1402240909841694</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3402797101121138</v>
+        <v>1.239567999394524</v>
       </c>
       <c r="N25">
-        <v>2.854762989011675</v>
+        <v>0.3336440266552216</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9904706750835146</v>
+        <v>0.95584972017582</v>
       </c>
       <c r="C2">
-        <v>0.1434914344115015</v>
+        <v>0.1893421678705778</v>
       </c>
       <c r="D2">
-        <v>0.1102482638991802</v>
+        <v>0.07661366705653183</v>
       </c>
       <c r="E2">
-        <v>0.0375812456482354</v>
+        <v>0.03241466082344502</v>
       </c>
       <c r="F2">
-        <v>2.621639165174884</v>
+        <v>1.814289071645661</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01374766798268379</v>
+        <v>0.01023825065839247</v>
       </c>
       <c r="I2">
-        <v>0.02375074945729727</v>
+        <v>0.01704870707650352</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.937218048137353</v>
+        <v>1.248345818737803</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4923499522389463</v>
       </c>
       <c r="M2">
-        <v>1.035101097425013</v>
+        <v>0.4423452875520297</v>
       </c>
       <c r="N2">
-        <v>0.279497879839667</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.090651994614888</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2957257899001178</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8625538839221463</v>
+        <v>0.8327027904236957</v>
       </c>
       <c r="C3">
-        <v>0.122919070862352</v>
+        <v>0.1615684022814605</v>
       </c>
       <c r="D3">
-        <v>0.10620221001464</v>
+        <v>0.07548566645426336</v>
       </c>
       <c r="E3">
-        <v>0.03239083926550634</v>
+        <v>0.02819242094579444</v>
       </c>
       <c r="F3">
-        <v>2.394746313319459</v>
+        <v>1.692372788245194</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01809088219207766</v>
+        <v>0.01362885966957156</v>
       </c>
       <c r="I3">
-        <v>0.02995015063141881</v>
+        <v>0.02157325607721772</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.787408118215211</v>
+        <v>1.184300406081455</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4777730835306997</v>
       </c>
       <c r="M3">
-        <v>0.8991133590634206</v>
+        <v>0.4106600054391549</v>
       </c>
       <c r="N3">
-        <v>0.2432513159079406</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9467156350464165</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2581025797381926</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7841702080696393</v>
+        <v>0.7570745753292556</v>
       </c>
       <c r="C4">
-        <v>0.1106356168794917</v>
+        <v>0.1449499895098398</v>
       </c>
       <c r="D4">
-        <v>0.1035817774090226</v>
+        <v>0.07472129787403725</v>
       </c>
       <c r="E4">
-        <v>0.02923629126194349</v>
+        <v>0.02561690464832722</v>
       </c>
       <c r="F4">
-        <v>2.254935647116227</v>
+        <v>1.616978073397647</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02115473450242988</v>
+        <v>0.01603397068663071</v>
       </c>
       <c r="I4">
-        <v>0.03428903018611695</v>
+        <v>0.02476680880230075</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.694533487264266</v>
+        <v>1.144164947125631</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4681068412662555</v>
       </c>
       <c r="M4">
-        <v>0.8161733661130484</v>
+        <v>0.3918692603088374</v>
       </c>
       <c r="N4">
-        <v>0.2210794822408673</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8587686327498432</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2350616277656599</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7520579036015533</v>
+        <v>0.726079119582522</v>
       </c>
       <c r="C5">
-        <v>0.1059447630685071</v>
+        <v>0.1385120231972508</v>
       </c>
       <c r="D5">
-        <v>0.1022896161234463</v>
+        <v>0.0743349043865611</v>
       </c>
       <c r="E5">
-        <v>0.02792280621979693</v>
+        <v>0.02454446937495547</v>
       </c>
       <c r="F5">
-        <v>2.193562789122666</v>
+        <v>1.583258952068817</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02251089341322077</v>
+        <v>0.01710094438761489</v>
       </c>
       <c r="I5">
-        <v>0.03629693201584772</v>
+        <v>0.0262858248383413</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.652844103687841</v>
+        <v>1.125330319919641</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4630562368934932</v>
       </c>
       <c r="M5">
-        <v>0.7827302958955897</v>
+        <v>0.3836096134739932</v>
       </c>
       <c r="N5">
-        <v>0.2121020873143635</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8232164071724526</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2257160715393951</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7464837833188369</v>
+        <v>0.7207301220936131</v>
       </c>
       <c r="C6">
-        <v>0.1054596950493902</v>
+        <v>0.1377358374789566</v>
       </c>
       <c r="D6">
-        <v>0.1018416190767297</v>
+        <v>0.07420113192568589</v>
       </c>
       <c r="E6">
-        <v>0.02766285356572418</v>
+        <v>0.02433483717453022</v>
       </c>
       <c r="F6">
-        <v>2.178165603009433</v>
+        <v>1.574172079140581</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02275633131931465</v>
+        <v>0.01729356660085357</v>
       </c>
       <c r="I6">
-        <v>0.03678122213899382</v>
+        <v>0.02669594146193877</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.64149966109062</v>
+        <v>1.119417083875646</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4610712233199763</v>
       </c>
       <c r="M6">
-        <v>0.7774706260409516</v>
+        <v>0.3813112214540482</v>
       </c>
       <c r="N6">
-        <v>0.2106628662643431</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8175557731072729</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2242046825431174</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7830669495852476</v>
+        <v>0.7561031014607238</v>
       </c>
       <c r="C7">
-        <v>0.1113627281892917</v>
+        <v>0.1456491475685056</v>
       </c>
       <c r="D7">
-        <v>0.1029312447385067</v>
+        <v>0.07453332784017164</v>
       </c>
       <c r="E7">
-        <v>0.02910246906444769</v>
+        <v>0.02551544485274704</v>
       </c>
       <c r="F7">
-        <v>2.239886103410996</v>
+        <v>1.607036525721469</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02121050153571868</v>
+        <v>0.01607602015297815</v>
       </c>
       <c r="I7">
-        <v>0.03468623759771194</v>
+        <v>0.02517949885932502</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.6819077449681</v>
+        <v>1.136354607747101</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4649809987978699</v>
       </c>
       <c r="M7">
-        <v>0.8165026941719589</v>
+        <v>0.3891679275114086</v>
       </c>
       <c r="N7">
-        <v>0.2210964812486367</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8589365269154428</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2350446002599682</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.945413349996528</v>
+        <v>0.9126376488049743</v>
       </c>
       <c r="C8">
-        <v>0.1373712090682062</v>
+        <v>0.1807219480362079</v>
       </c>
       <c r="D8">
-        <v>0.1080433482461132</v>
+        <v>0.07601939789666545</v>
       </c>
       <c r="E8">
-        <v>0.03562663493143425</v>
+        <v>0.03083773634037179</v>
       </c>
       <c r="F8">
-        <v>2.524582210462128</v>
+        <v>1.759875897097032</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0152012915933003</v>
+        <v>0.01136798781080818</v>
       </c>
       <c r="I8">
-        <v>0.02621150996442712</v>
+        <v>0.01898702319000112</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.869697069003237</v>
+        <v>1.216520477614239</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4836090727008369</v>
       </c>
       <c r="M8">
-        <v>0.9891079234716074</v>
+        <v>0.4277348216521304</v>
       </c>
       <c r="N8">
-        <v>0.2671621936251682</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.041774881537151</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2828836007938378</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.266829909466111</v>
+        <v>1.220901923649478</v>
       </c>
       <c r="C9">
-        <v>0.19012876095438</v>
+        <v>0.2519673058580167</v>
       </c>
       <c r="D9">
-        <v>0.1181178938642233</v>
+        <v>0.07865226075780418</v>
       </c>
       <c r="E9">
-        <v>0.04896986021677918</v>
+        <v>0.04162714577991977</v>
       </c>
       <c r="F9">
-        <v>3.105599572032418</v>
+        <v>2.072805258870346</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006716211408283157</v>
+        <v>0.004819710756674755</v>
       </c>
       <c r="I9">
-        <v>0.01352589956149419</v>
+        <v>0.009740591481583571</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.253124330192691</v>
+        <v>1.380843924428731</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5196330363252315</v>
       </c>
       <c r="M9">
-        <v>1.331534149339802</v>
+        <v>0.5136348497089855</v>
       </c>
       <c r="N9">
-        <v>0.358134390002391</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.403342115400733</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3771558505769406</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.502321438882035</v>
+        <v>1.446544779906048</v>
       </c>
       <c r="C10">
-        <v>0.2340119792294928</v>
+        <v>0.309250186615202</v>
       </c>
       <c r="D10">
-        <v>0.1215225053974507</v>
+        <v>0.07966976974479989</v>
       </c>
       <c r="E10">
-        <v>0.05533008336820444</v>
+        <v>0.04654291834250301</v>
       </c>
       <c r="F10">
-        <v>3.454289531180791</v>
+        <v>2.255097648322064</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.003184743377179444</v>
+        <v>0.002215327547087309</v>
       </c>
       <c r="I10">
-        <v>0.007635484594742614</v>
+        <v>0.005626794994811668</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.467139089676195</v>
+        <v>1.462837766910283</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.530133586137822</v>
       </c>
       <c r="M10">
-        <v>1.589895016931592</v>
+        <v>0.5664709616195438</v>
       </c>
       <c r="N10">
-        <v>0.4072078255415192</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.673886291677547</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4278251421642807</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.588904903516607</v>
+        <v>1.536746545244824</v>
       </c>
       <c r="C11">
-        <v>0.2760269808126026</v>
+        <v>0.3510429911436574</v>
       </c>
       <c r="D11">
-        <v>0.1010375682037594</v>
+        <v>0.07882289425055333</v>
       </c>
       <c r="E11">
-        <v>0.03198831758146348</v>
+        <v>0.02684515586041769</v>
       </c>
       <c r="F11">
-        <v>2.998662473585938</v>
+        <v>1.974397362100362</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02174436463249663</v>
+        <v>0.02077427282639732</v>
       </c>
       <c r="I11">
-        <v>0.007232497430451623</v>
+        <v>0.005520593300817112</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>2.064221033424076</v>
+        <v>1.229091293271992</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4395239600637879</v>
       </c>
       <c r="M11">
-        <v>1.726050669392947</v>
+        <v>0.4834387192634253</v>
       </c>
       <c r="N11">
-        <v>0.2823566412736938</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.807214652498516</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2985379073523546</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.612880327787735</v>
+        <v>1.565911830866838</v>
       </c>
       <c r="C12">
-        <v>0.30226320196698</v>
+        <v>0.3733635515951903</v>
       </c>
       <c r="D12">
-        <v>0.09051396437124026</v>
+        <v>0.08201136860765601</v>
       </c>
       <c r="E12">
-        <v>0.01920636482448845</v>
+        <v>0.0169238965726124</v>
       </c>
       <c r="F12">
-        <v>2.591153828143689</v>
+        <v>1.728460064522309</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06074958223150873</v>
+        <v>0.05967664500588654</v>
       </c>
       <c r="I12">
-        <v>0.007273831380030238</v>
+        <v>0.005475365841131286</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.730274473150743</v>
+        <v>1.043550410997824</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.372422142422046</v>
       </c>
       <c r="M12">
-        <v>1.785771252502911</v>
+        <v>0.4121922103872038</v>
       </c>
       <c r="N12">
-        <v>0.1865112867218244</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.861815667853477</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1990256233333838</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.588707255907536</v>
+        <v>1.548577499588788</v>
       </c>
       <c r="C13">
-        <v>0.3187440017611607</v>
+        <v>0.3828382476642105</v>
       </c>
       <c r="D13">
-        <v>0.08593268424315958</v>
+        <v>0.08794731573143721</v>
       </c>
       <c r="E13">
-        <v>0.0135847101759177</v>
+        <v>0.01370714625692115</v>
       </c>
       <c r="F13">
-        <v>2.176061907288442</v>
+        <v>1.480163795437036</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1172041202451766</v>
+        <v>0.1159173898281409</v>
       </c>
       <c r="I13">
-        <v>0.008114926913910914</v>
+        <v>0.005972178857929222</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.412212879794936</v>
+        <v>0.8723607070977835</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3138850875377628</v>
       </c>
       <c r="M13">
-        <v>1.790661358179875</v>
+        <v>0.3424071507708746</v>
       </c>
       <c r="N13">
-        <v>0.1082292657435673</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.859336321861235</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1174021139808659</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.549911138982992</v>
+        <v>1.515280360982359</v>
       </c>
       <c r="C14">
-        <v>0.3262448463576675</v>
+        <v>0.3839379713818403</v>
       </c>
       <c r="D14">
-        <v>0.08618742454099859</v>
+        <v>0.09374771504135992</v>
       </c>
       <c r="E14">
-        <v>0.01397447676979047</v>
+        <v>0.01547364176678379</v>
       </c>
       <c r="F14">
-        <v>1.884969922080472</v>
+        <v>1.306039503657672</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1672378424923551</v>
+        <v>0.1657429880174277</v>
       </c>
       <c r="I14">
-        <v>0.009220440216821224</v>
+        <v>0.006715037298476112</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.200205369804749</v>
+        <v>0.7601882946226297</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2766592318078942</v>
       </c>
       <c r="M14">
-        <v>1.769610033635104</v>
+        <v>0.295242899662199</v>
       </c>
       <c r="N14">
-        <v>0.06461875669734951</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.832019620461296</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07165840773352272</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.530010584549956</v>
+        <v>1.49706613353635</v>
       </c>
       <c r="C15">
-        <v>0.3261748987974613</v>
+        <v>0.3817383120817794</v>
       </c>
       <c r="D15">
-        <v>0.08670221452356941</v>
+        <v>0.09531417663242081</v>
       </c>
       <c r="E15">
-        <v>0.01455031672080942</v>
+        <v>0.01633864145210762</v>
       </c>
       <c r="F15">
-        <v>1.805565062932274</v>
+        <v>1.258810386903107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.180060685148888</v>
+        <v>0.1784757080893939</v>
       </c>
       <c r="I15">
-        <v>0.009849872419943395</v>
+        <v>0.007203801807696308</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.145335396910639</v>
+        <v>0.7319669380646374</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2676707707294916</v>
       </c>
       <c r="M15">
-        <v>1.753005906797711</v>
+        <v>0.2828653825199794</v>
       </c>
       <c r="N15">
-        <v>0.0552758176487842</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.813406517019303</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06181393021499559</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.433372245293185</v>
+        <v>1.403098158987319</v>
       </c>
       <c r="C16">
-        <v>0.3034780312982264</v>
+        <v>0.3546237274923953</v>
       </c>
       <c r="D16">
-        <v>0.08606498214343006</v>
+        <v>0.09293955505572882</v>
       </c>
       <c r="E16">
-        <v>0.01323769297174682</v>
+        <v>0.01493196408905195</v>
       </c>
       <c r="F16">
-        <v>1.742641931944419</v>
+        <v>1.228232006366696</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.168890595427456</v>
+        <v>0.1668971776181678</v>
       </c>
       <c r="I16">
-        <v>0.01232842132811474</v>
+        <v>0.00899427325209512</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.120360731028647</v>
+        <v>0.7287675662714221</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2704227523819327</v>
       </c>
       <c r="M16">
-        <v>1.640191607170664</v>
+        <v>0.276503651075565</v>
       </c>
       <c r="N16">
-        <v>0.05317485135369537</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.696861221515974</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05967023887463796</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.379961477919323</v>
+        <v>1.348845066139035</v>
       </c>
       <c r="C17">
-        <v>0.2822033145952503</v>
+        <v>0.3334646196780682</v>
       </c>
       <c r="D17">
-        <v>0.08482647573845981</v>
+        <v>0.08785022449364277</v>
       </c>
       <c r="E17">
-        <v>0.01123837183137866</v>
+        <v>0.01222215528239934</v>
       </c>
       <c r="F17">
-        <v>1.844140229342244</v>
+        <v>1.29534326471564</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1319750220854274</v>
+        <v>0.1297762462494632</v>
       </c>
       <c r="I17">
-        <v>0.01370836253348617</v>
+        <v>0.0100379676587119</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.208916570954287</v>
+        <v>0.7840029586355399</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2924029663709717</v>
       </c>
       <c r="M17">
-        <v>1.565183779753397</v>
+        <v>0.2952567774216277</v>
       </c>
       <c r="N17">
-        <v>0.07239447996006021</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.622334851667773</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07995329595157585</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.357842930230731</v>
+        <v>1.322796815309772</v>
       </c>
       <c r="C18">
-        <v>0.2593490784246342</v>
+        <v>0.3142838139992818</v>
       </c>
       <c r="D18">
-        <v>0.08610153230912676</v>
+        <v>0.08151353262906724</v>
       </c>
       <c r="E18">
-        <v>0.01233443572085147</v>
+        <v>0.01175792718884949</v>
       </c>
       <c r="F18">
-        <v>2.122980437977319</v>
+        <v>1.468529694044747</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07919134559156049</v>
+        <v>0.07701066846889404</v>
       </c>
       <c r="I18">
-        <v>0.01369445276352543</v>
+        <v>0.009981953200881577</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.429207349039785</v>
+        <v>0.90947798739208</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3389398389941363</v>
       </c>
       <c r="M18">
-        <v>1.513332683862728</v>
+        <v>0.3423189940021985</v>
       </c>
       <c r="N18">
-        <v>0.1221818432708446</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.574658831753197</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1321163336543378</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.360991221788169</v>
+        <v>1.320109627007554</v>
       </c>
       <c r="C19">
-        <v>0.2394558709724919</v>
+        <v>0.2999965013698045</v>
       </c>
       <c r="D19">
-        <v>0.09379112760854813</v>
+        <v>0.0776241380449072</v>
       </c>
       <c r="E19">
-        <v>0.02168659261771211</v>
+        <v>0.01860919726068655</v>
       </c>
       <c r="F19">
-        <v>2.528595724198809</v>
+        <v>1.713919813952941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03308151504818113</v>
+        <v>0.03114034876466576</v>
       </c>
       <c r="I19">
-        <v>0.01307822078225662</v>
+        <v>0.009696022014299643</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.749950615815649</v>
+        <v>1.086601460911488</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4034585785587979</v>
       </c>
       <c r="M19">
-        <v>1.485674143761372</v>
+        <v>0.4102697628953749</v>
       </c>
       <c r="N19">
-        <v>0.2086955771017358</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.553378092770885</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2221839312230429</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.437947264347684</v>
+        <v>1.385311908208678</v>
       </c>
       <c r="C20">
-        <v>0.2248997235496688</v>
+        <v>0.2965840324255282</v>
       </c>
       <c r="D20">
-        <v>0.1186480011479993</v>
+        <v>0.07902837896928938</v>
       </c>
       <c r="E20">
-        <v>0.05309790740912135</v>
+        <v>0.04482106417046339</v>
       </c>
       <c r="F20">
-        <v>3.315157045787657</v>
+        <v>2.176716959941373</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.003992259740687842</v>
+        <v>0.00279283709930267</v>
       </c>
       <c r="I20">
-        <v>0.009938038387417691</v>
+        <v>0.007634529055580153</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.370992402931662</v>
+        <v>1.417556670268283</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5189132764748621</v>
       </c>
       <c r="M20">
-        <v>1.524111301655751</v>
+        <v>0.5430906734564829</v>
       </c>
       <c r="N20">
-        <v>0.3939111110501869</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.604562513880836</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4140171187015369</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.623426266888089</v>
+        <v>1.561305437158296</v>
       </c>
       <c r="C21">
-        <v>0.2556733868559604</v>
+        <v>0.3388471519571965</v>
       </c>
       <c r="D21">
-        <v>0.1260852259000274</v>
+        <v>0.0805811349719141</v>
       </c>
       <c r="E21">
-        <v>0.06390788486180909</v>
+        <v>0.0536446897685785</v>
       </c>
       <c r="F21">
-        <v>3.701944442094941</v>
+        <v>2.387297973283324</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001539217715588848</v>
+        <v>0.0009672886294624927</v>
       </c>
       <c r="I21">
-        <v>0.006030416664272842</v>
+        <v>0.00490718825770653</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.632457539140717</v>
+        <v>1.533264767575702</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5454158147173729</v>
       </c>
       <c r="M21">
-        <v>1.720899971940355</v>
+        <v>0.6056161837262053</v>
       </c>
       <c r="N21">
-        <v>0.4607408708167782</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.811797410359162</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4829726521855093</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.745151188954708</v>
+        <v>1.676802305142729</v>
       </c>
       <c r="C22">
-        <v>0.2765326936404051</v>
+        <v>0.3669480709175161</v>
       </c>
       <c r="D22">
-        <v>0.1301292375653489</v>
+        <v>0.08143090949258536</v>
       </c>
       <c r="E22">
-        <v>0.06936094637862666</v>
+        <v>0.05798730350420911</v>
       </c>
       <c r="F22">
-        <v>3.938193210954239</v>
+        <v>2.515816083600342</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0006300693093588272</v>
+        <v>0.0003416531972399994</v>
       </c>
       <c r="I22">
-        <v>0.003898734056358322</v>
+        <v>0.003290880940365781</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.789448325094384</v>
+        <v>1.601740852647239</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5596254061177248</v>
       </c>
       <c r="M22">
-        <v>1.850801695803369</v>
+        <v>0.6447700278571133</v>
       </c>
       <c r="N22">
-        <v>0.4950053546911306</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.947964991999697</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5182842734279802</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.681008066532172</v>
+        <v>1.615839160178041</v>
       </c>
       <c r="C23">
-        <v>0.2643827786995274</v>
+        <v>0.3509069393929849</v>
       </c>
       <c r="D23">
-        <v>0.1287200876651902</v>
+        <v>0.08111961114381128</v>
       </c>
       <c r="E23">
-        <v>0.06659190939409854</v>
+        <v>0.05577214068580361</v>
       </c>
       <c r="F23">
-        <v>3.829108424651935</v>
+        <v>2.458117512916772</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001055433726439681</v>
+        <v>0.0006294571339071631</v>
       </c>
       <c r="I23">
-        <v>0.00461905581557609</v>
+        <v>0.00369902922203913</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.720144614903333</v>
+        <v>1.573809818797116</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5550962982348864</v>
       </c>
       <c r="M23">
-        <v>1.780473729442434</v>
+        <v>0.6272240363854422</v>
       </c>
       <c r="N23">
-        <v>0.4765332411073047</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.874453013114049</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4992877805434972</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.438022007825737</v>
+        <v>1.384568706604227</v>
       </c>
       <c r="C24">
-        <v>0.2212124506151127</v>
+        <v>0.2932291349987395</v>
       </c>
       <c r="D24">
-        <v>0.1219913395119434</v>
+        <v>0.07960889111570824</v>
       </c>
       <c r="E24">
-        <v>0.05607015209803734</v>
+        <v>0.04735048173560408</v>
       </c>
       <c r="F24">
-        <v>3.390678140950058</v>
+        <v>2.223006772664647</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.003736925276665914</v>
+        <v>0.002573122696331476</v>
       </c>
       <c r="I24">
-        <v>0.009284492609475059</v>
+        <v>0.006928459213104254</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.434678377146327</v>
+        <v>1.453768531482524</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5321763342384074</v>
       </c>
       <c r="M24">
-        <v>1.518112067107182</v>
+        <v>0.5569157920597547</v>
       </c>
       <c r="N24">
-        <v>0.4073634439071583</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.599315204199542</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4279745198899292</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.178307553537735</v>
+        <v>1.136363160004379</v>
       </c>
       <c r="C25">
-        <v>0.1769018341251467</v>
+        <v>0.2336698053001101</v>
       </c>
       <c r="D25">
-        <v>0.1143725326102327</v>
+        <v>0.0777414677650774</v>
       </c>
       <c r="E25">
-        <v>0.04509140670519507</v>
+        <v>0.03851620934251265</v>
       </c>
       <c r="F25">
-        <v>2.922610592854681</v>
+        <v>1.971541938565409</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.008663677001348402</v>
+        <v>0.006305133099813065</v>
       </c>
       <c r="I25">
-        <v>0.01701058350928086</v>
+        <v>0.0124690089778019</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>2.128014788747535</v>
+        <v>1.323673463864466</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5055130523728124</v>
       </c>
       <c r="M25">
-        <v>1.239567999394524</v>
+        <v>0.4847743099679462</v>
       </c>
       <c r="N25">
-        <v>0.3336440266552216</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.306118951012024</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3517540790021911</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
